--- a/Essendon_stats.xlsx
+++ b/Essendon_stats.xlsx
@@ -12676,7 +12676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -16988,7 +16988,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -17604,7 +17604,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -18220,7 +18220,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -29308,7 +29308,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -31156,7 +31156,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -31772,7 +31772,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -33620,7 +33620,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -34852,7 +34852,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -35468,7 +35468,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -36084,7 +36084,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -36700,7 +36700,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -37316,7 +37316,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -37932,7 +37932,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -38548,7 +38548,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -39164,7 +39164,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -39780,7 +39780,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -40396,7 +40396,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -41012,7 +41012,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -41628,7 +41628,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -42244,7 +42244,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -42860,7 +42860,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -43476,7 +43476,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -44092,7 +44092,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -44708,7 +44708,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -45324,7 +45324,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -45940,7 +45940,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -46556,7 +46556,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -47172,7 +47172,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -47788,7 +47788,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -48404,7 +48404,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -49020,7 +49020,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -49636,7 +49636,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -50252,7 +50252,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -50868,7 +50868,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -51484,7 +51484,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -52100,7 +52100,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -52716,7 +52716,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -53332,7 +53332,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -53948,7 +53948,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -54564,7 +54564,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -55180,7 +55180,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -55796,7 +55796,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -56412,7 +56412,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -57028,7 +57028,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -57644,7 +57644,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -58260,7 +58260,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -58876,7 +58876,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -59492,7 +59492,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -60108,7 +60108,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -60724,7 +60724,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -61340,7 +61340,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -61956,7 +61956,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -62572,7 +62572,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Essendon_stats.xlsx
+++ b/Essendon_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:GW102"/>
+  <dimension ref="A1:GX102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GP77" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="GV100" activeCellId="0" pane="topLeft" sqref="GV100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1003,11 +1003,14 @@
       <c r="GV1" s="1" t="n">
         <v>9930</v>
       </c>
-      <c r="GW1" t="n">
+      <c r="GW1" s="1" t="n">
         <v>10133</v>
       </c>
+      <c r="GX1" t="n">
+        <v>10148</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="2" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1622,11 +1625,14 @@
       <c r="GV2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="GW2" t="n">
+      <c r="GW2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="GX2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="3" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2241,11 +2247,14 @@
       <c r="GV3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GW3" t="n">
+      <c r="GW3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="GX3" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="4" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -2860,11 +2869,14 @@
       <c r="GV4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GW4" t="n">
+      <c r="GW4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="GX4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="5" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3479,11 +3491,14 @@
       <c r="GV5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GW5" t="n">
+      <c r="GW5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="GX5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="6" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4098,11 +4113,14 @@
       <c r="GV6" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="GW6" t="n">
+      <c r="GW6" s="1" t="n">
         <v>79</v>
       </c>
+      <c r="GX6" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="7" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -4717,11 +4735,14 @@
       <c r="GV7" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="GW7" t="n">
+      <c r="GW7" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="GX7" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="8" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5336,11 +5357,14 @@
       <c r="GV8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GW8" t="n">
+      <c r="GW8" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GX8" t="n">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="9" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -5955,11 +5979,14 @@
       <c r="GV9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GW9" t="n">
+      <c r="GW9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="GX9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="10" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -6574,11 +6601,14 @@
       <c r="GV10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GW10" t="n">
+      <c r="GW10" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="GX10" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="11" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7193,11 +7223,14 @@
       <c r="GV11" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="GW11" t="n">
+      <c r="GW11" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="GX11" t="n">
+        <v>164</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="12" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -7812,11 +7845,14 @@
       <c r="GV12" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="GW12" t="n">
+      <c r="GW12" s="1" t="n">
         <v>134</v>
       </c>
+      <c r="GX12" t="n">
+        <v>103</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="13" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -8431,11 +8467,14 @@
       <c r="GV13" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="GW13" t="n">
+      <c r="GW13" s="1" t="n">
         <v>297</v>
       </c>
+      <c r="GX13" t="n">
+        <v>267</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="14" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9050,11 +9089,14 @@
       <c r="GV14" s="1" t="n">
         <v>1.31</v>
       </c>
-      <c r="GW14" t="n">
+      <c r="GW14" s="1" t="n">
         <v>1.22</v>
       </c>
+      <c r="GX14" t="n">
+        <v>1.59</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="15" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -9669,11 +9711,14 @@
       <c r="GV15" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="GW15" t="n">
+      <c r="GW15" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="GX15" t="n">
+        <v>57</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="16" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -10288,11 +10333,14 @@
       <c r="GV16" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="GW16" t="n">
+      <c r="GW16" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="GX16" t="n">
+        <v>57</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="17" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -10907,11 +10955,14 @@
       <c r="GV17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="GW17" t="n">
+      <c r="GW17" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="GX17" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="18" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -11526,11 +11577,14 @@
       <c r="GV18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="GW18" t="n">
+      <c r="GW18" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="GX18" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="19" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -12145,11 +12199,14 @@
       <c r="GV19" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GW19" t="n">
+      <c r="GW19" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="GX19" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="20" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -12764,11 +12821,14 @@
       <c r="GV20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="GW20" t="n">
+      <c r="GW20" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="GX20" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="21" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -13383,11 +13443,14 @@
       <c r="GV21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GW21" t="n">
+      <c r="GW21" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GX21" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="22" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -14002,11 +14065,14 @@
       <c r="GV22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GW22" t="n">
+      <c r="GW22" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GX22" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="23" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -14621,11 +14687,14 @@
       <c r="GV23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GW23" t="n">
+      <c r="GW23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="GX23" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="24" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -15240,11 +15309,14 @@
       <c r="GV24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="GW24" t="n">
+      <c r="GW24" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="GX24" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="25" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -15859,11 +15931,14 @@
       <c r="GV25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="GW25" t="n">
+      <c r="GW25" s="1" t="n">
         <v>63.2</v>
       </c>
+      <c r="GX25" t="n">
+        <v>72.7</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="26" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -16478,11 +16553,14 @@
       <c r="GV26" s="1" t="n">
         <v>37.67</v>
       </c>
-      <c r="GW26" t="n">
+      <c r="GW26" s="1" t="n">
         <v>24.75</v>
       </c>
+      <c r="GX26" t="n">
+        <v>33.38</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="27" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -17097,11 +17175,14 @@
       <c r="GV27" s="1" t="n">
         <v>18.83</v>
       </c>
-      <c r="GW27" t="n">
+      <c r="GW27" s="1" t="n">
         <v>15.63</v>
       </c>
+      <c r="GX27" t="n">
+        <v>24.27</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="28" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -17716,11 +17797,14 @@
       <c r="GV28" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="GW28" t="n">
+      <c r="GW28" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="GX28" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="29" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -18335,11 +18419,14 @@
       <c r="GV29" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="GW29" t="n">
+      <c r="GW29" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="GX29" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="30" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -18954,11 +19041,14 @@
       <c r="GV30" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="GW30" t="n">
+      <c r="GW30" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="GX30" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="31" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -19573,11 +19663,14 @@
       <c r="GV31" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="GW31" t="n">
+      <c r="GW31" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="GX31" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="32" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -20192,11 +20285,14 @@
       <c r="GV32" s="1" t="n">
         <v>2.28</v>
       </c>
-      <c r="GW32" t="n">
+      <c r="GW32" s="1" t="n">
         <v>2.42</v>
       </c>
+      <c r="GX32" t="n">
+        <v>3.09</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="33" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -20811,11 +20907,14 @@
       <c r="GV33" s="1" t="n">
         <v>4.56</v>
       </c>
-      <c r="GW33" t="n">
+      <c r="GW33" s="1" t="n">
         <v>3.83</v>
       </c>
+      <c r="GX33" t="n">
+        <v>4.25</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="34" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -21430,11 +21529,14 @@
       <c r="GV34" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="GW34" t="n">
+      <c r="GW34" s="1" t="n">
         <v>39.1</v>
       </c>
+      <c r="GX34" t="n">
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="35" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -22049,11 +22151,14 @@
       <c r="GV35" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="GW35" t="n">
+      <c r="GW35" s="1" t="n">
         <v>26.1</v>
       </c>
+      <c r="GX35" t="n">
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="36" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -22668,11 +22773,14 @@
       <c r="GV36" s="1" t="n">
         <v>185.2</v>
       </c>
-      <c r="GW36" t="n">
+      <c r="GW36" s="1" t="n">
         <v>186</v>
       </c>
+      <c r="GX36" t="n">
+        <v>185.4</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="37" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -23287,11 +23395,14 @@
       <c r="GV37" s="1" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="GW37" t="n">
+      <c r="GW37" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="GX37" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="38" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -23906,11 +24017,14 @@
       <c r="GV38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="GW38" t="n">
+      <c r="GW38" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="GX38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="39" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -24525,11 +24639,14 @@
       <c r="GV39" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="GW39" t="n">
+      <c r="GW39" s="1" t="n">
         <v>97.40000000000001</v>
       </c>
+      <c r="GX39" t="n">
+        <v>93.3</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="40" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -25144,11 +25261,14 @@
       <c r="GV40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GW40" t="n">
+      <c r="GW40" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GX40" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="41" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -25763,11 +25883,14 @@
       <c r="GV41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GW41" t="n">
+      <c r="GW41" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="GX41" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="42" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -26382,11 +26505,14 @@
       <c r="GV42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GW42" t="n">
+      <c r="GW42" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GX42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="43" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -27001,11 +27127,14 @@
       <c r="GV43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="GW43" t="n">
+      <c r="GW43" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GX43" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="44" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -27620,11 +27749,14 @@
       <c r="GV44" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="GW44" t="n">
+      <c r="GW44" s="1" t="n">
         <v>128</v>
       </c>
+      <c r="GX44" t="n">
+        <v>112</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="45" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -28239,11 +28371,14 @@
       <c r="GV45" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="GW45" t="n">
+      <c r="GW45" s="1" t="n">
         <v>166</v>
       </c>
+      <c r="GX45" t="n">
+        <v>140</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="46" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -28858,11 +28993,14 @@
       <c r="GV46" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="GW46" t="n">
+      <c r="GW46" s="1" t="n">
         <v>215</v>
       </c>
+      <c r="GX46" t="n">
+        <v>179</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="47" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -29477,11 +29615,14 @@
       <c r="GV47" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="GW47" t="n">
+      <c r="GW47" s="1" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="GX47" t="n">
+        <v>67</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="48" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -30096,11 +30237,14 @@
       <c r="GV48" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="GW48" t="n">
+      <c r="GW48" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="GX48" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="49" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -30715,11 +30859,14 @@
       <c r="GV49" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GW49" t="n">
+      <c r="GW49" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="GX49" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="50" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -31334,11 +31481,14 @@
       <c r="GV50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="GW50" t="n">
+      <c r="GW50" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="GX50" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="51" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -31953,11 +32103,14 @@
       <c r="GV51" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="GW51" t="n">
+      <c r="GW51" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="GX51" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="52" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -32572,11 +32725,14 @@
       <c r="GV52" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="GW52" t="n">
+      <c r="GW52" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="GX52" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="53" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -33191,11 +33347,14 @@
       <c r="GV53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="GW53" t="n">
+      <c r="GW53" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="GX53" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="54" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -33810,11 +33969,14 @@
       <c r="GV54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GW54" t="n">
+      <c r="GW54" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GX54" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="55" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -34429,11 +34591,14 @@
       <c r="GV55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GW55" t="n">
+      <c r="GW55" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GX55" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="56" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -35048,11 +35213,14 @@
       <c r="GV56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="GW56" t="n">
+      <c r="GW56" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="GX56" t="n">
+        <v>75</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="57" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -35667,11 +35835,14 @@
       <c r="GV57" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="GW57" t="n">
+      <c r="GW57" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="GX57" t="n">
+        <v>211</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="58" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -36286,11 +36457,14 @@
       <c r="GV58" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="GW58" t="n">
+      <c r="GW58" s="1" t="n">
         <v>123</v>
       </c>
+      <c r="GX58" t="n">
+        <v>121</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="59" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -36905,11 +37079,14 @@
       <c r="GV59" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="GW59" t="n">
+      <c r="GW59" s="1" t="n">
         <v>311</v>
       </c>
+      <c r="GX59" t="n">
+        <v>332</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="60" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -37524,11 +37701,14 @@
       <c r="GV60" s="1" t="n">
         <v>1.38</v>
       </c>
-      <c r="GW60" t="n">
+      <c r="GW60" s="1" t="n">
         <v>1.53</v>
       </c>
+      <c r="GX60" t="n">
+        <v>1.74</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="61" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -38143,11 +38323,14 @@
       <c r="GV61" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="GW61" t="n">
+      <c r="GW61" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="GX61" t="n">
+        <v>88</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="62" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -38762,11 +38945,14 @@
       <c r="GV62" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="GW62" t="n">
+      <c r="GW62" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="GX62" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="63" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -39381,11 +39567,14 @@
       <c r="GV63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="GW63" t="n">
+      <c r="GW63" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="GX63" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="64" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -40000,11 +40189,14 @@
       <c r="GV64" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GW64" t="n">
+      <c r="GW64" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="GX64" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="65" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -40619,11 +40811,14 @@
       <c r="GV65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="GW65" t="n">
+      <c r="GW65" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="GX65" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="66" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -41238,11 +41433,14 @@
       <c r="GV66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GW66" t="n">
+      <c r="GW66" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="GX66" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="67" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -41857,11 +42055,14 @@
       <c r="GV67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GW67" t="n">
+      <c r="GW67" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GX67" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="68" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -42476,11 +42677,14 @@
       <c r="GV68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GW68" t="n">
+      <c r="GW68" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GX68" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="69" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -43095,11 +43299,14 @@
       <c r="GV69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GW69" t="n">
+      <c r="GW69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="GX69" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="70" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -43714,11 +43921,14 @@
       <c r="GV70" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="GW70" t="n">
+      <c r="GW70" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="GX70" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="71" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -44333,11 +44543,14 @@
       <c r="GV71" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="GW71" t="n">
+      <c r="GW71" s="1" t="n">
         <v>61.1</v>
       </c>
+      <c r="GX71" t="n">
+        <v>41.2</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="72" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -44952,11 +45165,14 @@
       <c r="GV72" s="1" t="n">
         <v>35.75</v>
       </c>
-      <c r="GW72" t="n">
+      <c r="GW72" s="1" t="n">
         <v>28.27</v>
       </c>
+      <c r="GX72" t="n">
+        <v>47.43</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="73" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -45571,11 +45787,14 @@
       <c r="GV73" s="1" t="n">
         <v>16.82</v>
       </c>
-      <c r="GW73" t="n">
+      <c r="GW73" s="1" t="n">
         <v>17.28</v>
       </c>
+      <c r="GX73" t="n">
+        <v>19.53</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="74" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -46190,11 +46409,14 @@
       <c r="GV74" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="GW74" t="n">
+      <c r="GW74" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="GX74" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="75" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -46809,11 +47031,14 @@
       <c r="GV75" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="GW75" t="n">
+      <c r="GW75" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="GX75" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="76" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -47428,11 +47653,14 @@
       <c r="GV76" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="GW76" t="n">
+      <c r="GW76" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="GX76" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="77" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -48047,11 +48275,14 @@
       <c r="GV77" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="GW77" t="n">
+      <c r="GW77" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="GX77" t="n">
+        <v>49</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="78" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -48666,11 +48897,14 @@
       <c r="GV78" s="1" t="n">
         <v>2.12</v>
       </c>
-      <c r="GW78" t="n">
+      <c r="GW78" s="1" t="n">
         <v>2.44</v>
       </c>
+      <c r="GX78" t="n">
+        <v>2.88</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="79" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -49285,11 +49519,14 @@
       <c r="GV79" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="GW79" t="n">
+      <c r="GW79" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GX79" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="80" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -49904,11 +50141,14 @@
       <c r="GV80" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="GW80" t="n">
+      <c r="GW80" s="1" t="n">
         <v>38.6</v>
       </c>
+      <c r="GX80" t="n">
+        <v>30.6</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="81" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -50523,11 +50763,14 @@
       <c r="GV81" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="GW81" t="n">
+      <c r="GW81" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="GX81" t="n">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="82" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -51142,11 +51385,14 @@
       <c r="GV82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="GW82" t="n">
+      <c r="GW82" s="1" t="n">
         <v>187.1</v>
       </c>
+      <c r="GX82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="83" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -51761,11 +52007,14 @@
       <c r="GV83" s="1" t="n">
         <v>88.8</v>
       </c>
-      <c r="GW83" t="n">
+      <c r="GW83" s="1" t="n">
         <v>84.5</v>
       </c>
+      <c r="GX83" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="84" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -52380,11 +52629,14 @@
       <c r="GV84" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="GW84" t="n">
+      <c r="GW84" s="1" t="n">
         <v>24.8</v>
       </c>
+      <c r="GX84" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="85" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -52999,11 +53251,14 @@
       <c r="GV85" s="1" t="n">
         <v>58.7</v>
       </c>
-      <c r="GW85" t="n">
+      <c r="GW85" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="GX85" t="n">
+        <v>105.4</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="86" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -53618,11 +53873,14 @@
       <c r="GV86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GW86" t="n">
+      <c r="GW86" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="GX86" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="87" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -54237,11 +54495,14 @@
       <c r="GV87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GW87" t="n">
+      <c r="GW87" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="GX87" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="88" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -54856,11 +55117,14 @@
       <c r="GV88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GW88" t="n">
+      <c r="GW88" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GX88" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="89" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -55475,11 +55739,14 @@
       <c r="GV89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GW89" t="n">
+      <c r="GW89" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="GX89" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="90" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -56094,11 +56361,14 @@
       <c r="GV90" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="GW90" t="n">
+      <c r="GW90" s="1" t="n">
         <v>126</v>
       </c>
+      <c r="GX90" t="n">
+        <v>126</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="91" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -56713,11 +56983,14 @@
       <c r="GV91" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="GW91" t="n">
+      <c r="GW91" s="1" t="n">
         <v>182</v>
       </c>
+      <c r="GX91" t="n">
+        <v>201</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="92" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -57332,11 +57605,14 @@
       <c r="GV92" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="GW92" t="n">
+      <c r="GW92" s="1" t="n">
         <v>228</v>
       </c>
+      <c r="GX92" t="n">
+        <v>226</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="93" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -57951,11 +58227,14 @@
       <c r="GV93" s="1" t="n">
         <v>73.8</v>
       </c>
-      <c r="GW93" t="n">
+      <c r="GW93" s="1" t="n">
         <v>73.3</v>
       </c>
+      <c r="GX93" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="94" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -58570,11 +58849,14 @@
       <c r="GV94" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="GW94" t="n">
+      <c r="GW94" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="GX94" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="95" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -59189,11 +59471,14 @@
       <c r="GV95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GW95" t="n">
+      <c r="GW95" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="GX95" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="96" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -59808,11 +60093,14 @@
       <c r="GV96" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="GW96" t="n">
+      <c r="GW96" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GX96" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="97" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -60427,11 +60715,14 @@
       <c r="GV97" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="GW97" t="n">
+      <c r="GW97" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="GX97" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="98" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -61046,11 +61337,14 @@
       <c r="GV98" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="GW98" t="n">
+      <c r="GW98" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="GX98" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="99" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -61665,11 +61959,14 @@
       <c r="GV99" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="GW99" t="n">
+      <c r="GW99" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="GX99" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="100" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -62284,11 +62581,14 @@
       <c r="GV100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GW100" t="n">
+      <c r="GW100" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GX100" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="101" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -62903,11 +63203,14 @@
       <c r="GV101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GW101" t="n">
+      <c r="GW101" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GX101" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="102" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -63522,13 +63825,16 @@
       <c r="GV102" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="GW102" t="n">
+      <c r="GW102" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="GX102" t="n">
+        <v>57.1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Essendon_stats.xlsx
+++ b/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:GX102"/>
+  <dimension ref="A1:GY102"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GP77" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="GV100" activeCellId="0" pane="topLeft" sqref="GV100"/>
@@ -1006,8 +1006,11 @@
       <c r="GW1" s="1" t="n">
         <v>10133</v>
       </c>
-      <c r="GX1" t="n">
+      <c r="GX1" s="1" t="n">
         <v>10148</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>10183</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="2">
@@ -1628,7 +1631,10 @@
       <c r="GW2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GX2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GY2" t="n">
         <v>2020</v>
       </c>
     </row>
@@ -2250,8 +2256,11 @@
       <c r="GW3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="GX3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="4" s="2">
@@ -2872,8 +2881,11 @@
       <c r="GW4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX4" t="n">
+      <c r="GX4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="2">
@@ -3494,7 +3506,10 @@
       <c r="GW5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX5" t="n">
+      <c r="GX5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,8 +4131,11 @@
       <c r="GW6" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="GX6" t="n">
+      <c r="GX6" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>63</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="7" s="2">
@@ -4738,8 +4756,11 @@
       <c r="GW7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="GX7" t="n">
+      <c r="GX7" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>48</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="8" s="2">
@@ -5360,8 +5381,11 @@
       <c r="GW8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX8" t="n">
+      <c r="GX8" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="2">
@@ -5982,8 +6006,11 @@
       <c r="GW9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX9" t="n">
+      <c r="GX9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="10" s="2">
@@ -6604,8 +6631,11 @@
       <c r="GW10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="GX10" t="n">
+      <c r="GX10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="11" s="2">
@@ -7226,8 +7256,11 @@
       <c r="GW11" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="GX11" t="n">
+      <c r="GX11" s="1" t="n">
         <v>164</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>173</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="12" s="2">
@@ -7848,8 +7881,11 @@
       <c r="GW12" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="GX12" t="n">
+      <c r="GX12" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>99</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="13" s="2">
@@ -8470,8 +8506,11 @@
       <c r="GW13" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="GX13" t="n">
+      <c r="GX13" s="1" t="n">
         <v>267</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>272</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="14" s="2">
@@ -9092,8 +9131,11 @@
       <c r="GW14" s="1" t="n">
         <v>1.22</v>
       </c>
-      <c r="GX14" t="n">
+      <c r="GX14" s="1" t="n">
         <v>1.59</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="15" s="2">
@@ -9714,8 +9756,11 @@
       <c r="GW15" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="GX15" t="n">
+      <c r="GX15" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>67</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="16" s="2">
@@ -10336,8 +10381,11 @@
       <c r="GW16" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="GX16" t="n">
+      <c r="GX16" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="17" s="2">
@@ -10958,8 +11006,11 @@
       <c r="GW17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="GX17" t="n">
+      <c r="GX17" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="2">
@@ -11580,8 +11631,11 @@
       <c r="GW18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GX18" t="n">
+      <c r="GX18" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="19" s="2">
@@ -12202,8 +12256,11 @@
       <c r="GW19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="GX19" t="n">
+      <c r="GX19" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="20" s="2">
@@ -12824,8 +12881,11 @@
       <c r="GW20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="GX20" t="n">
+      <c r="GX20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="21" s="2">
@@ -13446,8 +13506,11 @@
       <c r="GW21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX21" t="n">
+      <c r="GX21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="2">
@@ -14068,8 +14131,11 @@
       <c r="GW22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX22" t="n">
+      <c r="GX22" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="GY22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="23" s="2">
@@ -14690,8 +14756,11 @@
       <c r="GW23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX23" t="n">
+      <c r="GX23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="24" s="2">
@@ -15312,8 +15381,11 @@
       <c r="GW24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="GX24" t="n">
+      <c r="GX24" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="25" s="2">
@@ -15934,8 +16006,11 @@
       <c r="GW25" s="1" t="n">
         <v>63.2</v>
       </c>
-      <c r="GX25" t="n">
+      <c r="GX25" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="26" s="2">
@@ -16556,8 +16631,11 @@
       <c r="GW26" s="1" t="n">
         <v>24.75</v>
       </c>
-      <c r="GX26" t="n">
+      <c r="GX26" s="1" t="n">
         <v>33.38</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>27.2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="27" s="2">
@@ -17178,8 +17256,11 @@
       <c r="GW27" s="1" t="n">
         <v>15.63</v>
       </c>
-      <c r="GX27" t="n">
+      <c r="GX27" s="1" t="n">
         <v>24.27</v>
+      </c>
+      <c r="GY27" t="n">
+        <v>20.92</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="28" s="2">
@@ -17800,8 +17881,11 @@
       <c r="GW28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="GX28" t="n">
+      <c r="GX28" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="GY28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="29" s="2">
@@ -18422,8 +18506,11 @@
       <c r="GW29" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="GX29" t="n">
+      <c r="GX29" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="GY29" t="n">
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="30" s="2">
@@ -19044,8 +19131,11 @@
       <c r="GW30" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="GX30" t="n">
+      <c r="GX30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="GY30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="31" s="2">
@@ -19666,8 +19756,11 @@
       <c r="GW31" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="GX31" t="n">
+      <c r="GX31" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="GY31" t="n">
+        <v>35</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="32" s="2">
@@ -20288,8 +20381,11 @@
       <c r="GW32" s="1" t="n">
         <v>2.42</v>
       </c>
-      <c r="GX32" t="n">
+      <c r="GX32" s="1" t="n">
         <v>3.09</v>
+      </c>
+      <c r="GY32" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="33" s="2">
@@ -20910,8 +21006,11 @@
       <c r="GW33" s="1" t="n">
         <v>3.83</v>
       </c>
-      <c r="GX33" t="n">
+      <c r="GX33" s="1" t="n">
         <v>4.25</v>
+      </c>
+      <c r="GY33" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="34" s="2">
@@ -21532,8 +21631,11 @@
       <c r="GW34" s="1" t="n">
         <v>39.1</v>
       </c>
-      <c r="GX34" t="n">
+      <c r="GX34" s="1" t="n">
         <v>23.5</v>
+      </c>
+      <c r="GY34" t="n">
+        <v>34.3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="35" s="2">
@@ -22154,8 +22256,11 @@
       <c r="GW35" s="1" t="n">
         <v>26.1</v>
       </c>
-      <c r="GX35" t="n">
+      <c r="GX35" s="1" t="n">
         <v>23.5</v>
+      </c>
+      <c r="GY35" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="36" s="2">
@@ -22776,8 +22881,11 @@
       <c r="GW36" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="GX36" t="n">
+      <c r="GX36" s="1" t="n">
         <v>185.4</v>
+      </c>
+      <c r="GY36" t="n">
+        <v>185.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="37" s="2">
@@ -23398,8 +23506,11 @@
       <c r="GW37" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="GX37" t="n">
+      <c r="GX37" s="1" t="n">
         <v>85.59999999999999</v>
+      </c>
+      <c r="GY37" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="38" s="2">
@@ -24020,7 +24131,10 @@
       <c r="GW38" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="GX38" t="n">
+      <c r="GX38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="GY38" t="n">
         <v>25.8</v>
       </c>
     </row>
@@ -24642,8 +24756,11 @@
       <c r="GW39" s="1" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="GX39" t="n">
+      <c r="GX39" s="1" t="n">
         <v>93.3</v>
+      </c>
+      <c r="GY39" t="n">
+        <v>85</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="40" s="2">
@@ -25264,8 +25381,11 @@
       <c r="GW40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX40" t="n">
+      <c r="GX40" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="GY40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="41" s="2">
@@ -25886,7 +26006,10 @@
       <c r="GW41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GX41" t="n">
+      <c r="GX41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -26508,8 +26631,11 @@
       <c r="GW42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GX42" t="n">
+      <c r="GX42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GY42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="43" s="2">
@@ -27130,7 +27256,10 @@
       <c r="GW43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX43" t="n">
+      <c r="GX43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27752,8 +27881,11 @@
       <c r="GW44" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="GX44" t="n">
+      <c r="GX44" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>116</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="45" s="2">
@@ -28374,8 +28506,11 @@
       <c r="GW45" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="GX45" t="n">
+      <c r="GX45" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="46" s="2">
@@ -28996,8 +29131,11 @@
       <c r="GW46" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="GX46" t="n">
+      <c r="GX46" s="1" t="n">
         <v>179</v>
+      </c>
+      <c r="GY46" t="n">
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="47" s="2">
@@ -29618,8 +29756,11 @@
       <c r="GW47" s="1" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="GX47" t="n">
+      <c r="GX47" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="GY47" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="48" s="2">
@@ -30240,8 +30381,11 @@
       <c r="GW48" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="GX48" t="n">
+      <c r="GX48" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="GY48" t="n">
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="49" s="2">
@@ -30862,8 +31006,11 @@
       <c r="GW49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GX49" t="n">
+      <c r="GX49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="GY49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="50" s="2">
@@ -31484,8 +31631,11 @@
       <c r="GW50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GX50" t="n">
+      <c r="GX50" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="GY50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="51" s="2">
@@ -32106,8 +32256,11 @@
       <c r="GW51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="GX51" t="n">
+      <c r="GX51" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="GY51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="52" s="2">
@@ -32728,8 +32881,11 @@
       <c r="GW52" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="GX52" t="n">
+      <c r="GX52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="GY52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="53" s="2">
@@ -33350,8 +33506,11 @@
       <c r="GW53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="GX53" t="n">
+      <c r="GX53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="GY53" t="n">
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="54" s="2">
@@ -33972,8 +34131,11 @@
       <c r="GW54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX54" t="n">
+      <c r="GX54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="GY54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="55" s="2">
@@ -34594,8 +34756,11 @@
       <c r="GW55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX55" t="n">
+      <c r="GX55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GY55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="56" s="2">
@@ -35216,8 +35381,11 @@
       <c r="GW56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="GX56" t="n">
+      <c r="GX56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="GY56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="57" s="2">
@@ -35838,8 +36006,11 @@
       <c r="GW57" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="GX57" t="n">
+      <c r="GX57" s="1" t="n">
         <v>211</v>
+      </c>
+      <c r="GY57" t="n">
+        <v>163</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="58" s="2">
@@ -36460,8 +36631,11 @@
       <c r="GW58" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="GX58" t="n">
+      <c r="GX58" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="GY58" t="n">
+        <v>155</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="59" s="2">
@@ -37082,8 +37256,11 @@
       <c r="GW59" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="GX59" t="n">
+      <c r="GX59" s="1" t="n">
         <v>332</v>
+      </c>
+      <c r="GY59" t="n">
+        <v>318</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="60" s="2">
@@ -37704,8 +37881,11 @@
       <c r="GW60" s="1" t="n">
         <v>1.53</v>
       </c>
-      <c r="GX60" t="n">
+      <c r="GX60" s="1" t="n">
         <v>1.74</v>
+      </c>
+      <c r="GY60" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="61" s="2">
@@ -38326,8 +38506,11 @@
       <c r="GW61" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="GX61" t="n">
+      <c r="GX61" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="GY61" t="n">
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="62" s="2">
@@ -38948,8 +39131,11 @@
       <c r="GW62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="GX62" t="n">
+      <c r="GX62" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="GY62" t="n">
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="63" s="2">
@@ -39570,8 +39756,11 @@
       <c r="GW63" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="GX63" t="n">
+      <c r="GX63" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="GY63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="64" s="2">
@@ -40192,8 +40381,11 @@
       <c r="GW64" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="GX64" t="n">
+      <c r="GX64" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GY64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="65" s="2">
@@ -40814,8 +41006,11 @@
       <c r="GW65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GX65" t="n">
+      <c r="GX65" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GY65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="66" s="2">
@@ -41436,7 +41631,10 @@
       <c r="GW66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GX66" t="n">
+      <c r="GX66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY66" t="n">
         <v>7</v>
       </c>
     </row>
@@ -42058,8 +42256,11 @@
       <c r="GW67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX67" t="n">
+      <c r="GX67" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GY67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="68" s="2">
@@ -42680,8 +42881,11 @@
       <c r="GW68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX68" t="n">
+      <c r="GX68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="GY68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="69" s="2">
@@ -43302,8 +43506,11 @@
       <c r="GW69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX69" t="n">
+      <c r="GX69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="GY69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="70" s="2">
@@ -43924,8 +44131,11 @@
       <c r="GW70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="GX70" t="n">
+      <c r="GX70" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="GY70" t="n">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="71" s="2">
@@ -44546,8 +44756,11 @@
       <c r="GW71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="GX71" t="n">
+      <c r="GX71" s="1" t="n">
         <v>41.2</v>
+      </c>
+      <c r="GY71" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="72" s="2">
@@ -45168,8 +45381,11 @@
       <c r="GW72" s="1" t="n">
         <v>28.27</v>
       </c>
-      <c r="GX72" t="n">
+      <c r="GX72" s="1" t="n">
         <v>47.43</v>
+      </c>
+      <c r="GY72" t="n">
+        <v>45.43</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="73" s="2">
@@ -45790,8 +46006,11 @@
       <c r="GW73" s="1" t="n">
         <v>17.28</v>
       </c>
-      <c r="GX73" t="n">
+      <c r="GX73" s="1" t="n">
         <v>19.53</v>
+      </c>
+      <c r="GY73" t="n">
+        <v>24.46</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="74" s="2">
@@ -46412,8 +46631,11 @@
       <c r="GW74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="GX74" t="n">
+      <c r="GX74" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="GY74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="75" s="2">
@@ -47034,8 +47256,11 @@
       <c r="GW75" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="GX75" t="n">
+      <c r="GX75" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="GY75" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="76" s="2">
@@ -47656,7 +47881,10 @@
       <c r="GW76" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="GX76" t="n">
+      <c r="GX76" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="GY76" t="n">
         <v>26</v>
       </c>
     </row>
@@ -48278,8 +48506,11 @@
       <c r="GW77" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="GX77" t="n">
+      <c r="GX77" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="GY77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="78" s="2">
@@ -48900,8 +49131,11 @@
       <c r="GW78" s="1" t="n">
         <v>2.44</v>
       </c>
-      <c r="GX78" t="n">
+      <c r="GX78" s="1" t="n">
         <v>2.88</v>
+      </c>
+      <c r="GY78" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="79" s="2">
@@ -49522,8 +49756,11 @@
       <c r="GW79" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GX79" t="n">
+      <c r="GX79" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="GY79" t="n">
+        <v>5.86</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="80" s="2">
@@ -50144,8 +50381,11 @@
       <c r="GW80" s="1" t="n">
         <v>38.6</v>
       </c>
-      <c r="GX80" t="n">
+      <c r="GX80" s="1" t="n">
         <v>30.6</v>
+      </c>
+      <c r="GY80" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="81" s="2">
@@ -50766,8 +51006,11 @@
       <c r="GW81" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="GX81" t="n">
+      <c r="GX81" s="1" t="n">
         <v>14.3</v>
+      </c>
+      <c r="GY81" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="82" s="2">
@@ -51388,8 +51631,11 @@
       <c r="GW82" s="1" t="n">
         <v>187.1</v>
       </c>
-      <c r="GX82" t="n">
+      <c r="GX82" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="GY82" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="83" s="2">
@@ -52010,8 +52256,11 @@
       <c r="GW83" s="1" t="n">
         <v>84.5</v>
       </c>
-      <c r="GX83" t="n">
+      <c r="GX83" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="GY83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="84" s="2">
@@ -52632,8 +52881,11 @@
       <c r="GW84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="GX84" t="n">
+      <c r="GX84" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="GY84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="85" s="2">
@@ -53254,8 +53506,11 @@
       <c r="GW85" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="GX85" t="n">
+      <c r="GX85" s="1" t="n">
         <v>105.4</v>
+      </c>
+      <c r="GY85" t="n">
+        <v>106.9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="86" s="2">
@@ -53876,7 +54131,10 @@
       <c r="GW86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GX86" t="n">
+      <c r="GX86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -54498,8 +54756,11 @@
       <c r="GW87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GX87" t="n">
+      <c r="GX87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GY87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="88" s="2">
@@ -55120,8 +55381,11 @@
       <c r="GW88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX88" t="n">
+      <c r="GX88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GY88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="89" s="2">
@@ -55742,7 +56006,10 @@
       <c r="GW89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="GX89" t="n">
+      <c r="GX89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GY89" t="n">
         <v>5</v>
       </c>
     </row>
@@ -56364,7 +56631,10 @@
       <c r="GW90" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="GX90" t="n">
+      <c r="GX90" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="GY90" t="n">
         <v>126</v>
       </c>
     </row>
@@ -56986,8 +57256,11 @@
       <c r="GW91" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="GX91" t="n">
+      <c r="GX91" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="GY91" t="n">
+        <v>192</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="92" s="2">
@@ -57608,8 +57881,11 @@
       <c r="GW92" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="GX92" t="n">
+      <c r="GX92" s="1" t="n">
         <v>226</v>
+      </c>
+      <c r="GY92" t="n">
+        <v>216</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="93" s="2">
@@ -58230,8 +58506,11 @@
       <c r="GW93" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="GX93" t="n">
+      <c r="GX93" s="1" t="n">
         <v>68.09999999999999</v>
+      </c>
+      <c r="GY93" t="n">
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="94" s="2">
@@ -58852,8 +59131,11 @@
       <c r="GW94" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="GX94" t="n">
+      <c r="GX94" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="GY94" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="95" s="2">
@@ -59474,8 +59756,11 @@
       <c r="GW95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GX95" t="n">
+      <c r="GX95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="GY95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="96" s="2">
@@ -60096,8 +60381,11 @@
       <c r="GW96" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GX96" t="n">
+      <c r="GX96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GY96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="97" s="2">
@@ -60718,8 +61006,11 @@
       <c r="GW97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="GX97" t="n">
+      <c r="GX97" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="GY97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="98" s="2">
@@ -61340,7 +61631,10 @@
       <c r="GW98" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="GX98" t="n">
+      <c r="GX98" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="GY98" t="n">
         <v>26</v>
       </c>
     </row>
@@ -61962,8 +62256,11 @@
       <c r="GW99" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="GX99" t="n">
+      <c r="GX99" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="GY99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="100" s="2">
@@ -62584,7 +62881,10 @@
       <c r="GW100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GX100" t="n">
+      <c r="GX100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -63206,8 +63506,11 @@
       <c r="GW101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX101" t="n">
+      <c r="GX101" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GY101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="102" s="2">
@@ -63828,8 +64131,11 @@
       <c r="GW102" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="GX102" t="n">
+      <c r="GX102" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="GY102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Essendon_stats.xlsx
+++ b/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:GY102"/>
+  <dimension ref="A1:HB102"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GP77" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="GV100" activeCellId="0" pane="topLeft" sqref="GV100"/>
@@ -1009,8 +1009,17 @@
       <c r="GX1" s="1" t="n">
         <v>10148</v>
       </c>
-      <c r="GY1" t="n">
+      <c r="GY1" s="1" t="n">
         <v>10183</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>10214</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>10219</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>10232</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="2">
@@ -1634,7 +1643,16 @@
       <c r="GX2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="GY2" t="n">
+      <c r="GY2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GZ2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HA2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HB2" t="n">
         <v>2020</v>
       </c>
     </row>
@@ -2259,8 +2277,17 @@
       <c r="GX3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GY3" t="n">
+      <c r="GY3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="GZ3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="4" s="2">
@@ -2884,7 +2911,16 @@
       <c r="GX4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GY4" t="n">
+      <c r="GY4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,7 +3545,16 @@
       <c r="GX5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GY5" t="n">
+      <c r="GY5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,8 +4179,17 @@
       <c r="GX6" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="GY6" t="n">
+      <c r="GY6" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="GZ6" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="HA6" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>62</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="7" s="2">
@@ -4759,8 +4813,17 @@
       <c r="GX7" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="GY7" t="n">
+      <c r="GY7" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="GZ7" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="HA7" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="8" s="2">
@@ -5384,8 +5447,17 @@
       <c r="GX8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="GY8" t="n">
+      <c r="GY8" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="GZ8" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HA8" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="2">
@@ -6009,7 +6081,16 @@
       <c r="GX9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GY9" t="n">
+      <c r="GY9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6634,8 +6715,17 @@
       <c r="GX10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="GY10" t="n">
+      <c r="GY10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GZ10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HA10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="11" s="2">
@@ -7259,8 +7349,17 @@
       <c r="GX11" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="GY11" t="n">
+      <c r="GY11" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="GZ11" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="HA11" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>176</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="12" s="2">
@@ -7884,8 +7983,17 @@
       <c r="GX12" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="GY12" t="n">
+      <c r="GY12" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="GZ12" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="HA12" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="13" s="2">
@@ -8509,8 +8617,17 @@
       <c r="GX13" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="GY13" t="n">
+      <c r="GY13" s="1" t="n">
         <v>272</v>
+      </c>
+      <c r="GZ13" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="HA13" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>322</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="14" s="2">
@@ -9134,8 +9251,17 @@
       <c r="GX14" s="1" t="n">
         <v>1.59</v>
       </c>
-      <c r="GY14" t="n">
+      <c r="GY14" s="1" t="n">
         <v>1.75</v>
+      </c>
+      <c r="GZ14" s="1" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="HA14" s="1" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="15" s="2">
@@ -9759,8 +9885,17 @@
       <c r="GX15" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="GY15" t="n">
+      <c r="GY15" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="GZ15" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="HA15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>66</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="16" s="2">
@@ -10384,8 +10519,17 @@
       <c r="GX16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="GY16" t="n">
+      <c r="GY16" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="GZ16" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="HA16" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>76</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="17" s="2">
@@ -11009,8 +11153,17 @@
       <c r="GX17" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="GY17" t="n">
+      <c r="GY17" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GZ17" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="2">
@@ -11634,8 +11787,17 @@
       <c r="GX18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GY18" t="n">
+      <c r="GY18" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="GZ18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HA18" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="19" s="2">
@@ -12259,8 +12421,17 @@
       <c r="GX19" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GY19" t="n">
+      <c r="GY19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="GZ19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HA19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="20" s="2">
@@ -12884,8 +13055,17 @@
       <c r="GX20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GY20" t="n">
+      <c r="GY20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="GZ20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HA20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HB20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="21" s="2">
@@ -13509,8 +13689,17 @@
       <c r="GX21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GY21" t="n">
+      <c r="GY21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="GZ21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="2">
@@ -14134,8 +14323,17 @@
       <c r="GX22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GY22" t="n">
+      <c r="GY22" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="GZ22" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HA22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="23" s="2">
@@ -14759,8 +14957,17 @@
       <c r="GX23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="GY23" t="n">
+      <c r="GY23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="GZ23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="24" s="2">
@@ -15384,8 +15591,17 @@
       <c r="GX24" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GY24" t="n">
+      <c r="GY24" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GZ24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HA24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="25" s="2">
@@ -16009,8 +16225,17 @@
       <c r="GX25" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="GY25" t="n">
+      <c r="GY25" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="GZ25" s="1" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="HA25" s="1" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="HB25" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="26" s="2">
@@ -16634,8 +16859,17 @@
       <c r="GX26" s="1" t="n">
         <v>33.38</v>
       </c>
-      <c r="GY26" t="n">
+      <c r="GY26" s="1" t="n">
         <v>27.2</v>
+      </c>
+      <c r="GZ26" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HA26" s="1" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="HB26" t="n">
+        <v>35.78</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="27" s="2">
@@ -17259,8 +17493,17 @@
       <c r="GX27" s="1" t="n">
         <v>24.27</v>
       </c>
-      <c r="GY27" t="n">
+      <c r="GY27" s="1" t="n">
         <v>20.92</v>
+      </c>
+      <c r="GZ27" s="1" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="HA27" s="1" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="HB27" t="n">
+        <v>18.94</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="28" s="2">
@@ -17884,8 +18127,17 @@
       <c r="GX28" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="GY28" t="n">
+      <c r="GY28" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="GZ28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HA28" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HB28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="29" s="2">
@@ -18509,8 +18761,17 @@
       <c r="GX29" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="GY29" t="n">
+      <c r="GY29" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="GZ29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="HA29" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="HB29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="30" s="2">
@@ -19134,8 +19395,17 @@
       <c r="GX30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="GY30" t="n">
+      <c r="GY30" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="GZ30" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HA30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HB30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="31" s="2">
@@ -19759,8 +20029,17 @@
       <c r="GX31" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="GY31" t="n">
+      <c r="GY31" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="GZ31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HA31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HB31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="32" s="2">
@@ -20384,8 +20663,17 @@
       <c r="GX32" s="1" t="n">
         <v>3.09</v>
       </c>
-      <c r="GY32" t="n">
+      <c r="GY32" s="1" t="n">
         <v>2.69</v>
+      </c>
+      <c r="GZ32" s="1" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="HA32" s="1" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="HB32" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="33" s="2">
@@ -21009,8 +21297,17 @@
       <c r="GX33" s="1" t="n">
         <v>4.25</v>
       </c>
-      <c r="GY33" t="n">
+      <c r="GY33" s="1" t="n">
         <v>3.5</v>
+      </c>
+      <c r="GZ33" s="1" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="HA33" s="1" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="HB33" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="34" s="2">
@@ -21634,8 +21931,17 @@
       <c r="GX34" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="GY34" t="n">
+      <c r="GY34" s="1" t="n">
         <v>34.3</v>
+      </c>
+      <c r="GZ34" s="1" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="HA34" s="1" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="HB34" t="n">
+        <v>31.9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="35" s="2">
@@ -22259,8 +22565,17 @@
       <c r="GX35" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="GY35" t="n">
+      <c r="GY35" s="1" t="n">
         <v>28.6</v>
+      </c>
+      <c r="GZ35" s="1" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="HA35" s="1" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="HB35" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="36" s="2">
@@ -22884,8 +23199,17 @@
       <c r="GX36" s="1" t="n">
         <v>185.4</v>
       </c>
-      <c r="GY36" t="n">
+      <c r="GY36" s="1" t="n">
         <v>185.8</v>
+      </c>
+      <c r="GZ36" s="1" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="HA36" s="1" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="HB36" t="n">
+        <v>185.1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="37" s="2">
@@ -23509,8 +23833,17 @@
       <c r="GX37" s="1" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="GY37" t="n">
+      <c r="GY37" s="1" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="GZ37" s="1" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="HA37" s="1" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="HB37" t="n">
+        <v>85</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="38" s="2">
@@ -24134,7 +24467,16 @@
       <c r="GX38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="GY38" t="n">
+      <c r="GY38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="GZ38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HA38" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="HB38" t="n">
         <v>25.8</v>
       </c>
     </row>
@@ -24759,8 +25101,17 @@
       <c r="GX39" s="1" t="n">
         <v>93.3</v>
       </c>
-      <c r="GY39" t="n">
+      <c r="GY39" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="GZ39" s="1" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HA39" s="1" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="HB39" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="40" s="2">
@@ -25384,8 +25735,17 @@
       <c r="GX40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GY40" t="n">
+      <c r="GY40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="GZ40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="41" s="2">
@@ -26009,7 +26369,16 @@
       <c r="GX41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="GY41" t="n">
+      <c r="GY41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HB41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -26634,8 +27003,17 @@
       <c r="GX42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GY42" t="n">
+      <c r="GY42" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="GZ42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="43" s="2">
@@ -27259,8 +27637,17 @@
       <c r="GX43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GY43" t="n">
+      <c r="GY43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GZ43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HA43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="44" s="2">
@@ -27884,8 +28271,17 @@
       <c r="GX44" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="GY44" t="n">
+      <c r="GY44" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="GZ44" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="HA44" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="HB44" t="n">
+        <v>138</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="45" s="2">
@@ -28509,8 +28905,17 @@
       <c r="GX45" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="GY45" t="n">
+      <c r="GY45" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="GZ45" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="HA45" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="HB45" t="n">
+        <v>175</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="46" s="2">
@@ -29134,8 +29539,17 @@
       <c r="GX46" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="GY46" t="n">
+      <c r="GY46" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="GZ46" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="HA46" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="HB46" t="n">
+        <v>220</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="47" s="2">
@@ -29759,8 +30173,17 @@
       <c r="GX47" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="GY47" t="n">
+      <c r="GY47" s="1" t="n">
         <v>72.8</v>
+      </c>
+      <c r="GZ47" s="1" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="HA47" s="1" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="HB47" t="n">
+        <v>68.3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="48" s="2">
@@ -30384,8 +30807,17 @@
       <c r="GX48" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="GY48" t="n">
+      <c r="GY48" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="GZ48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="HA48" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="HB48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="49" s="2">
@@ -31009,8 +31441,17 @@
       <c r="GX49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GY49" t="n">
+      <c r="GY49" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GZ49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HA49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HB49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="50" s="2">
@@ -31634,8 +32075,17 @@
       <c r="GX50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GY50" t="n">
+      <c r="GY50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="GZ50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HB50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="51" s="2">
@@ -32259,8 +32709,17 @@
       <c r="GX51" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="GY51" t="n">
+      <c r="GY51" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="GZ51" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HA51" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HB51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="52" s="2">
@@ -32884,8 +33343,17 @@
       <c r="GX52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="GY52" t="n">
+      <c r="GY52" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="GZ52" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HA52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HB52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="53" s="2">
@@ -33509,8 +33977,17 @@
       <c r="GX53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="GY53" t="n">
+      <c r="GY53" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="GZ53" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HA53" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HB53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="54" s="2">
@@ -34134,8 +34611,17 @@
       <c r="GX54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="GY54" t="n">
+      <c r="GY54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="GZ54" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HA54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="55" s="2">
@@ -34759,8 +35245,17 @@
       <c r="GX55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GY55" t="n">
+      <c r="GY55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="GZ55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="56" s="2">
@@ -35384,8 +35879,17 @@
       <c r="GX56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="GY56" t="n">
+      <c r="GY56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="GZ56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HA56" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="HB56" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="57" s="2">
@@ -36009,8 +36513,17 @@
       <c r="GX57" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="GY57" t="n">
+      <c r="GY57" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="GZ57" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="HA57" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="HB57" t="n">
+        <v>167</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="58" s="2">
@@ -36634,8 +37147,17 @@
       <c r="GX58" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="GY58" t="n">
+      <c r="GY58" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="GZ58" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="HA58" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="HB58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="59" s="2">
@@ -37259,8 +37781,17 @@
       <c r="GX59" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="GY59" t="n">
+      <c r="GY59" s="1" t="n">
         <v>318</v>
+      </c>
+      <c r="GZ59" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="HA59" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="HB59" t="n">
+        <v>317</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="60" s="2">
@@ -37884,8 +38415,17 @@
       <c r="GX60" s="1" t="n">
         <v>1.74</v>
       </c>
-      <c r="GY60" t="n">
+      <c r="GY60" s="1" t="n">
         <v>1.05</v>
+      </c>
+      <c r="GZ60" s="1" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="HA60" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="HB60" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="61" s="2">
@@ -38509,8 +39049,17 @@
       <c r="GX61" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="GY61" t="n">
+      <c r="GY61" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="GZ61" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="HA61" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="HB61" t="n">
+        <v>55</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="62" s="2">
@@ -39134,8 +39683,17 @@
       <c r="GX62" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="GY62" t="n">
+      <c r="GY62" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="GZ62" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="HA62" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HB62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="63" s="2">
@@ -39759,8 +40317,17 @@
       <c r="GX63" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="GY63" t="n">
+      <c r="GY63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="GZ63" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA63" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HB63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="64" s="2">
@@ -40384,8 +40951,17 @@
       <c r="GX64" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GY64" t="n">
+      <c r="GY64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="GZ64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HA64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HB64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="65" s="2">
@@ -41009,8 +41585,17 @@
       <c r="GX65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GY65" t="n">
+      <c r="GY65" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="GZ65" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HA65" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HB65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="66" s="2">
@@ -41634,8 +42219,17 @@
       <c r="GX66" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GY66" t="n">
+      <c r="GY66" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="GZ66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA66" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HB66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="67" s="2">
@@ -42259,8 +42853,17 @@
       <c r="GX67" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GY67" t="n">
+      <c r="GY67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="GZ67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HB67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="68" s="2">
@@ -42884,8 +43487,17 @@
       <c r="GX68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GY68" t="n">
+      <c r="GY68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GZ68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HA68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="69" s="2">
@@ -43509,8 +44121,17 @@
       <c r="GX69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GY69" t="n">
+      <c r="GY69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="GZ69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="70" s="2">
@@ -44134,8 +44755,17 @@
       <c r="GX70" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="GY70" t="n">
+      <c r="GY70" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GZ70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HA70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HB70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="71" s="2">
@@ -44759,8 +45389,17 @@
       <c r="GX71" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="GY71" t="n">
+      <c r="GY71" s="1" t="n">
         <v>53.8</v>
+      </c>
+      <c r="GZ71" s="1" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="HA71" s="1" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="HB71" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="72" s="2">
@@ -45384,8 +46023,17 @@
       <c r="GX72" s="1" t="n">
         <v>47.43</v>
       </c>
-      <c r="GY72" t="n">
+      <c r="GY72" s="1" t="n">
         <v>45.43</v>
+      </c>
+      <c r="GZ72" s="1" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="HA72" s="1" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="HB72" t="n">
+        <v>39.62</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="73" s="2">
@@ -46009,8 +46657,17 @@
       <c r="GX73" s="1" t="n">
         <v>19.53</v>
       </c>
-      <c r="GY73" t="n">
+      <c r="GY73" s="1" t="n">
         <v>24.46</v>
+      </c>
+      <c r="GZ73" s="1" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="HA73" s="1" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="HB73" t="n">
+        <v>16.68</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="74" s="2">
@@ -46634,8 +47291,17 @@
       <c r="GX74" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="GY74" t="n">
+      <c r="GY74" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="GZ74" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HB74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="75" s="2">
@@ -47259,8 +47925,17 @@
       <c r="GX75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="GY75" t="n">
+      <c r="GY75" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="GZ75" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="HA75" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HB75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="76" s="2">
@@ -47884,8 +48559,17 @@
       <c r="GX76" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="GY76" t="n">
+      <c r="GY76" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="GZ76" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HA76" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HB76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="77" s="2">
@@ -48509,8 +49193,17 @@
       <c r="GX77" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="GY77" t="n">
+      <c r="GY77" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="GZ77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HA77" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HB77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="78" s="2">
@@ -49134,8 +49827,17 @@
       <c r="GX78" s="1" t="n">
         <v>2.88</v>
       </c>
-      <c r="GY78" t="n">
+      <c r="GY78" s="1" t="n">
         <v>3.15</v>
+      </c>
+      <c r="GZ78" s="1" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="HA78" s="1" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="HB78" t="n">
+        <v>2.37</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="79" s="2">
@@ -49759,8 +50461,17 @@
       <c r="GX79" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GY79" t="n">
+      <c r="GY79" s="1" t="n">
         <v>5.86</v>
+      </c>
+      <c r="GZ79" s="1" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="HA79" s="1" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="HB79" t="n">
+        <v>5.62</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="80" s="2">
@@ -50384,8 +51095,17 @@
       <c r="GX80" s="1" t="n">
         <v>30.6</v>
       </c>
-      <c r="GY80" t="n">
+      <c r="GY80" s="1" t="n">
         <v>31.7</v>
+      </c>
+      <c r="GZ80" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HA80" s="1" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="HB80" t="n">
+        <v>40</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="81" s="2">
@@ -51009,8 +51729,17 @@
       <c r="GX81" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="GY81" t="n">
+      <c r="GY81" s="1" t="n">
         <v>17.1</v>
+      </c>
+      <c r="GZ81" s="1" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="HA81" s="1" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="HB81" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="82" s="2">
@@ -51634,8 +52363,17 @@
       <c r="GX82" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="GY82" t="n">
+      <c r="GY82" s="1" t="n">
         <v>189.3</v>
+      </c>
+      <c r="GZ82" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HA82" s="1" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="HB82" t="n">
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="83" s="2">
@@ -52259,8 +52997,17 @@
       <c r="GX83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="GY83" t="n">
+      <c r="GY83" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="GZ83" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="HA83" s="1" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="HB83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="84" s="2">
@@ -52884,8 +53631,17 @@
       <c r="GX84" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="GY84" t="n">
+      <c r="GY84" s="1" t="n">
         <v>26.33</v>
+      </c>
+      <c r="GZ84" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HA84" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HB84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="85" s="2">
@@ -53509,8 +54265,17 @@
       <c r="GX85" s="1" t="n">
         <v>105.4</v>
       </c>
-      <c r="GY85" t="n">
+      <c r="GY85" s="1" t="n">
         <v>106.9</v>
+      </c>
+      <c r="GZ85" s="1" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="HA85" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="HB85" t="n">
+        <v>84</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="86" s="2">
@@ -54134,8 +54899,17 @@
       <c r="GX86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GY86" t="n">
+      <c r="GY86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="GZ86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HA86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HB86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="87" s="2">
@@ -54759,8 +55533,17 @@
       <c r="GX87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GY87" t="n">
+      <c r="GY87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GZ87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="88" s="2">
@@ -55384,8 +56167,17 @@
       <c r="GX88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GY88" t="n">
+      <c r="GY88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GZ88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA88" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="89" s="2">
@@ -56009,8 +56801,17 @@
       <c r="GX89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GY89" t="n">
+      <c r="GY89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="GZ89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="90" s="2">
@@ -56634,8 +57435,17 @@
       <c r="GX90" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="GY90" t="n">
+      <c r="GY90" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="GZ90" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="HA90" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="HB90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="91" s="2">
@@ -57259,8 +58069,17 @@
       <c r="GX91" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="GY91" t="n">
+      <c r="GY91" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="GZ91" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="HA91" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="HB91" t="n">
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="92" s="2">
@@ -57884,8 +58703,17 @@
       <c r="GX92" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="GY92" t="n">
+      <c r="GY92" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="GZ92" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="HA92" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="HB92" t="n">
+        <v>236</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="93" s="2">
@@ -58509,8 +59337,17 @@
       <c r="GX93" s="1" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="GY93" t="n">
+      <c r="GY93" s="1" t="n">
         <v>67.90000000000001</v>
+      </c>
+      <c r="GZ93" s="1" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="HA93" s="1" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="HB93" t="n">
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="94" s="2">
@@ -59134,8 +59971,17 @@
       <c r="GX94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="GY94" t="n">
+      <c r="GY94" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="GZ94" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="HA94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HB94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="95" s="2">
@@ -59759,8 +60605,17 @@
       <c r="GX95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GY95" t="n">
+      <c r="GY95" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GZ95" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HB95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="96" s="2">
@@ -60384,8 +61239,17 @@
       <c r="GX96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GY96" t="n">
+      <c r="GY96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="GZ96" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA96" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HB96" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="97" s="2">
@@ -61009,8 +61873,17 @@
       <c r="GX97" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="GY97" t="n">
+      <c r="GY97" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="GZ97" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HB97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="98" s="2">
@@ -61634,8 +62507,17 @@
       <c r="GX98" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="GY98" t="n">
+      <c r="GY98" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="GZ98" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HA98" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HB98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="99" s="2">
@@ -62259,8 +63141,17 @@
       <c r="GX99" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="GY99" t="n">
+      <c r="GY99" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="GZ99" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HA99" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HB99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="100" s="2">
@@ -62884,8 +63775,17 @@
       <c r="GX100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GY100" t="n">
+      <c r="GY100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="GZ100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="101" s="2">
@@ -63509,8 +64409,17 @@
       <c r="GX101" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GY101" t="n">
+      <c r="GY101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="GZ101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA101" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HB101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="102" s="2">
@@ -64134,8 +65043,17 @@
       <c r="GX102" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="GY102" t="n">
+      <c r="GY102" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="GZ102" s="1" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HA102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HB102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Essendon_stats.xlsx
+++ b/Essendon_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HB102"/>
+  <dimension ref="A1:HC102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GP77" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="GV100" activeCellId="0" pane="topLeft" sqref="GV100"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
+    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="2">
+    <row r="1" ht="13.8" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1018,11 +1018,14 @@
       <c r="HA1" s="1" t="n">
         <v>10219</v>
       </c>
-      <c r="HB1" t="n">
+      <c r="HB1" s="1" t="n">
         <v>10232</v>
       </c>
+      <c r="HC1" t="n">
+        <v>10239</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="2">
+    <row r="2" ht="13.8" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1652,11 +1655,14 @@
       <c r="HA2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HB2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HC2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="2">
+    <row r="3" ht="13.8" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2286,11 +2292,14 @@
       <c r="HA3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HB3" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HC3" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="2">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -2920,11 +2929,14 @@
       <c r="HA4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HB4" t="n">
+      <c r="HB4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="2">
+    <row r="5" ht="13.8" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3554,11 +3566,14 @@
       <c r="HA5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HB5" t="n">
+      <c r="HB5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="2">
+    <row r="6" ht="13.8" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4188,11 +4203,14 @@
       <c r="HA6" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HB6" t="n">
+      <c r="HB6" s="1" t="n">
         <v>62</v>
       </c>
+      <c r="HC6" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="2">
+    <row r="7" ht="13.8" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -4822,11 +4840,14 @@
       <c r="HA7" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="HB7" t="n">
+      <c r="HB7" s="1" t="n">
         <v>59</v>
       </c>
+      <c r="HC7" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="2">
+    <row r="8" ht="13.8" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5456,11 +5477,14 @@
       <c r="HA8" s="1" t="n">
         <v>-42</v>
       </c>
-      <c r="HB8" t="n">
+      <c r="HB8" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HC8" t="n">
+        <v>-63</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="2">
+    <row r="9" ht="13.8" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6090,11 +6114,14 @@
       <c r="HA9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HB9" t="n">
+      <c r="HB9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="2">
+    <row r="10" ht="13.8" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -6724,11 +6751,14 @@
       <c r="HA10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HB10" t="n">
+      <c r="HB10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC10" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="2">
+    <row r="11" ht="13.8" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7358,11 +7388,14 @@
       <c r="HA11" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="HB11" t="n">
+      <c r="HB11" s="1" t="n">
         <v>176</v>
       </c>
+      <c r="HC11" t="n">
+        <v>140</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="2">
+    <row r="12" ht="13.8" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -7992,11 +8025,14 @@
       <c r="HA12" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="HB12" t="n">
+      <c r="HB12" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="HC12" t="n">
+        <v>108</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="2">
+    <row r="13" ht="13.8" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -8626,11 +8662,14 @@
       <c r="HA13" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="HB13" t="n">
+      <c r="HB13" s="1" t="n">
         <v>322</v>
       </c>
+      <c r="HC13" t="n">
+        <v>248</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="2">
+    <row r="14" ht="13.8" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9260,11 +9299,14 @@
       <c r="HA14" s="1" t="n">
         <v>1.13</v>
       </c>
-      <c r="HB14" t="n">
+      <c r="HB14" s="1" t="n">
         <v>1.21</v>
       </c>
+      <c r="HC14" t="n">
+        <v>1.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="2">
+    <row r="15" ht="13.8" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -9894,11 +9936,14 @@
       <c r="HA15" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="HB15" t="n">
+      <c r="HB15" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="HC15" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="2">
+    <row r="16" ht="13.8" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -10528,11 +10573,14 @@
       <c r="HA16" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HB16" t="n">
+      <c r="HB16" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="HC16" t="n">
+        <v>39</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="2">
+    <row r="17" ht="13.8" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11162,11 +11210,14 @@
       <c r="HA17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HB17" t="n">
+      <c r="HB17" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="HC17" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="2">
+    <row r="18" ht="13.8" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -11796,11 +11847,14 @@
       <c r="HA18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HB18" t="n">
+      <c r="HB18" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="HC18" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="2">
+    <row r="19" ht="13.8" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -12430,11 +12484,14 @@
       <c r="HA19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HB19" t="n">
+      <c r="HB19" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HC19" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="2">
+    <row r="20" ht="13.8" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13064,11 +13121,14 @@
       <c r="HA20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HB20" t="n">
+      <c r="HB20" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HC20" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="2">
+    <row r="21" ht="13.8" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -13698,11 +13758,14 @@
       <c r="HA21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HB21" t="n">
+      <c r="HB21" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HC21" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="2">
+    <row r="22" ht="13.8" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -14332,11 +14395,14 @@
       <c r="HA22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HB22" t="n">
+      <c r="HB22" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HC22" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="2">
+    <row r="23" ht="13.8" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -14966,11 +15032,14 @@
       <c r="HA23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HB23" t="n">
+      <c r="HB23" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HC23" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="2">
+    <row r="24" ht="13.8" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -15600,11 +15669,14 @@
       <c r="HA24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HB24" t="n">
+      <c r="HB24" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="HC24" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="2">
+    <row r="25" ht="13.8" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -16234,11 +16306,14 @@
       <c r="HA25" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="HB25" t="n">
+      <c r="HB25" s="1" t="n">
         <v>52.9</v>
       </c>
+      <c r="HC25" t="n">
+        <v>23.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="2">
+    <row r="26" ht="13.8" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -16868,11 +16943,14 @@
       <c r="HA26" s="1" t="n">
         <v>43.29</v>
       </c>
-      <c r="HB26" t="n">
+      <c r="HB26" s="1" t="n">
         <v>35.78</v>
       </c>
+      <c r="HC26" t="n">
+        <v>82.67</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="2">
+    <row r="27" ht="13.8" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -17502,11 +17580,14 @@
       <c r="HA27" s="1" t="n">
         <v>18.94</v>
       </c>
-      <c r="HB27" t="n">
+      <c r="HB27" s="1" t="n">
         <v>18.94</v>
       </c>
+      <c r="HC27" t="n">
+        <v>19.08</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="2">
+    <row r="28" ht="13.8" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -18136,11 +18217,14 @@
       <c r="HA28" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HB28" t="n">
+      <c r="HB28" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HC28" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="2">
+    <row r="29" ht="13.8" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -18770,11 +18854,14 @@
       <c r="HA29" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HB29" t="n">
+      <c r="HB29" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="HC29" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="2">
+    <row r="30" ht="13.8" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -19404,11 +19491,14 @@
       <c r="HA30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HB30" t="n">
+      <c r="HB30" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HC30" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="2">
+    <row r="31" ht="13.8" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -20038,11 +20128,14 @@
       <c r="HA31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HB31" t="n">
+      <c r="HB31" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HC31" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="2">
+    <row r="32" ht="13.8" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -20672,11 +20765,14 @@
       <c r="HA32" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="HB32" t="n">
+      <c r="HB32" s="1" t="n">
         <v>2.76</v>
       </c>
+      <c r="HC32" t="n">
+        <v>3.23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="2">
+    <row r="33" ht="13.8" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -21306,11 +21402,14 @@
       <c r="HA33" s="1" t="n">
         <v>6.14</v>
       </c>
-      <c r="HB33" t="n">
+      <c r="HB33" s="1" t="n">
         <v>5.22</v>
       </c>
+      <c r="HC33" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="2">
+    <row r="34" ht="13.8" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -21940,11 +22039,14 @@
       <c r="HA34" s="1" t="n">
         <v>34.9</v>
       </c>
-      <c r="HB34" t="n">
+      <c r="HB34" s="1" t="n">
         <v>31.9</v>
       </c>
+      <c r="HC34" t="n">
+        <v>28.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="2">
+    <row r="35" ht="13.8" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -22574,11 +22676,14 @@
       <c r="HA35" s="1" t="n">
         <v>16.3</v>
       </c>
-      <c r="HB35" t="n">
+      <c r="HB35" s="1" t="n">
         <v>19.1</v>
       </c>
+      <c r="HC35" t="n">
+        <v>7.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="2">
+    <row r="36" ht="13.8" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -23208,11 +23313,14 @@
       <c r="HA36" s="1" t="n">
         <v>184.8</v>
       </c>
-      <c r="HB36" t="n">
+      <c r="HB36" s="1" t="n">
         <v>185.1</v>
       </c>
+      <c r="HC36" t="n">
+        <v>186</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="2">
+    <row r="37" ht="13.8" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -23842,11 +23950,14 @@
       <c r="HA37" s="1" t="n">
         <v>84.7</v>
       </c>
-      <c r="HB37" t="n">
+      <c r="HB37" s="1" t="n">
         <v>85</v>
       </c>
+      <c r="HC37" t="n">
+        <v>85.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="2">
+    <row r="38" ht="13.8" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -24476,11 +24587,14 @@
       <c r="HA38" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="HB38" t="n">
+      <c r="HB38" s="1" t="n">
         <v>25.8</v>
       </c>
+      <c r="HC38" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="2">
+    <row r="39" ht="13.8" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -25110,11 +25224,14 @@
       <c r="HA39" s="1" t="n">
         <v>79.09999999999999</v>
       </c>
-      <c r="HB39" t="n">
+      <c r="HB39" s="1" t="n">
         <v>76.5</v>
       </c>
+      <c r="HC39" t="n">
+        <v>77.09999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="2">
+    <row r="40" ht="13.8" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -25744,11 +25861,14 @@
       <c r="HA40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HB40" t="n">
+      <c r="HB40" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HC40" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="2">
+    <row r="41" ht="13.8" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -26378,11 +26498,14 @@
       <c r="HA41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HB41" t="n">
+      <c r="HB41" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HC41" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="2">
+    <row r="42" ht="13.8" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -27012,11 +27135,14 @@
       <c r="HA42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HB42" t="n">
+      <c r="HB42" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HC42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="2">
+    <row r="43" ht="13.8" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -27646,11 +27772,14 @@
       <c r="HA43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HB43" t="n">
+      <c r="HB43" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HC43" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="2">
+    <row r="44" ht="13.8" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -28280,11 +28409,14 @@
       <c r="HA44" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="HB44" t="n">
+      <c r="HB44" s="1" t="n">
         <v>138</v>
       </c>
+      <c r="HC44" t="n">
+        <v>110</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="2">
+    <row r="45" ht="13.8" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -28914,11 +29046,14 @@
       <c r="HA45" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="HB45" t="n">
+      <c r="HB45" s="1" t="n">
         <v>175</v>
       </c>
+      <c r="HC45" t="n">
+        <v>133</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="2">
+    <row r="46" ht="13.8" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -29548,11 +29683,14 @@
       <c r="HA46" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="HB46" t="n">
+      <c r="HB46" s="1" t="n">
         <v>220</v>
       </c>
+      <c r="HC46" t="n">
+        <v>169</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="2">
+    <row r="47" ht="13.8" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -30182,11 +30320,14 @@
       <c r="HA47" s="1" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="HB47" t="n">
+      <c r="HB47" s="1" t="n">
         <v>68.3</v>
       </c>
+      <c r="HC47" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="2">
+    <row r="48" ht="13.8" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -30816,11 +30957,14 @@
       <c r="HA48" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HB48" t="n">
+      <c r="HB48" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="HC48" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="2">
+    <row r="49" ht="13.8" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -31450,11 +31594,14 @@
       <c r="HA49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HB49" t="n">
+      <c r="HB49" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HC49" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="2">
+    <row r="50" ht="13.8" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -32084,11 +32231,14 @@
       <c r="HA50" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HB50" t="n">
+      <c r="HB50" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HC50" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="2">
+    <row r="51" ht="13.8" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -32718,11 +32868,14 @@
       <c r="HA51" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HB51" t="n">
+      <c r="HB51" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HC51" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="2">
+    <row r="52" ht="13.8" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -33352,11 +33505,14 @@
       <c r="HA52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HB52" t="n">
+      <c r="HB52" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HC52" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="2">
+    <row r="53" ht="13.8" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -33986,11 +34142,14 @@
       <c r="HA53" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HB53" t="n">
+      <c r="HB53" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HC53" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="2">
+    <row r="54" ht="13.8" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -34620,11 +34779,14 @@
       <c r="HA54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HB54" t="n">
+      <c r="HB54" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HC54" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="2">
+    <row r="55" ht="13.8" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -35254,11 +35416,14 @@
       <c r="HA55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HB55" t="n">
+      <c r="HB55" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HC55" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="2">
+    <row r="56" ht="13.8" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -35888,11 +36053,14 @@
       <c r="HA56" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="HB56" t="n">
+      <c r="HB56" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HC56" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="2">
+    <row r="57" ht="13.8" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -36522,11 +36690,14 @@
       <c r="HA57" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="HB57" t="n">
+      <c r="HB57" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="HC57" t="n">
+        <v>210</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="2">
+    <row r="58" ht="13.8" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -37156,11 +37327,14 @@
       <c r="HA58" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="HB58" t="n">
+      <c r="HB58" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="HC58" t="n">
+        <v>107</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="2">
+    <row r="59" ht="13.8" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -37790,11 +37964,14 @@
       <c r="HA59" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="HB59" t="n">
+      <c r="HB59" s="1" t="n">
         <v>317</v>
       </c>
+      <c r="HC59" t="n">
+        <v>317</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="2">
+    <row r="60" ht="13.8" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -38424,11 +38601,14 @@
       <c r="HA60" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="HB60" t="n">
+      <c r="HB60" s="1" t="n">
         <v>1.11</v>
       </c>
+      <c r="HC60" t="n">
+        <v>1.96</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="2">
+    <row r="61" ht="13.8" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -39058,11 +39238,14 @@
       <c r="HA61" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HB61" t="n">
+      <c r="HB61" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="HC61" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="2">
+    <row r="62" ht="13.8" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -39692,11 +39875,14 @@
       <c r="HA62" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HB62" t="n">
+      <c r="HB62" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="HC62" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="2">
+    <row r="63" ht="13.8" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -40326,11 +40512,14 @@
       <c r="HA63" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HB63" t="n">
+      <c r="HB63" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="HC63" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="2">
+    <row r="64" ht="13.8" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -40960,11 +41149,14 @@
       <c r="HA64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HB64" t="n">
+      <c r="HB64" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HC64" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="2">
+    <row r="65" ht="13.8" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -41594,11 +41786,14 @@
       <c r="HA65" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HB65" t="n">
+      <c r="HB65" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="HC65" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="2">
+    <row r="66" ht="13.8" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -42228,11 +42423,14 @@
       <c r="HA66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HB66" t="n">
+      <c r="HB66" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HC66" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="2">
+    <row r="67" ht="13.8" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -42862,11 +43060,14 @@
       <c r="HA67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HB67" t="n">
+      <c r="HB67" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HC67" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="2">
+    <row r="68" ht="13.8" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -43496,11 +43697,14 @@
       <c r="HA68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HB68" t="n">
+      <c r="HB68" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HC68" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="2">
+    <row r="69" ht="13.8" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -44130,11 +44334,14 @@
       <c r="HA69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HB69" t="n">
+      <c r="HB69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC69" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="2">
+    <row r="70" ht="13.8" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -44764,11 +44971,14 @@
       <c r="HA70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HB70" t="n">
+      <c r="HB70" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="HC70" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="2">
+    <row r="71" ht="13.8" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -45398,11 +45608,14 @@
       <c r="HA71" s="1" t="n">
         <v>60.9</v>
       </c>
-      <c r="HB71" t="n">
+      <c r="HB71" s="1" t="n">
         <v>42.1</v>
       </c>
+      <c r="HC71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="2">
+    <row r="72" ht="13.8" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -46032,11 +46245,14 @@
       <c r="HA72" s="1" t="n">
         <v>22.5</v>
       </c>
-      <c r="HB72" t="n">
+      <c r="HB72" s="1" t="n">
         <v>39.62</v>
       </c>
+      <c r="HC72" t="n">
+        <v>22.64</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="2">
+    <row r="73" ht="13.8" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -46666,11 +46882,14 @@
       <c r="HA73" s="1" t="n">
         <v>13.7</v>
       </c>
-      <c r="HB73" t="n">
+      <c r="HB73" s="1" t="n">
         <v>16.68</v>
       </c>
+      <c r="HC73" t="n">
+        <v>15.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="2">
+    <row r="74" ht="13.8" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -47300,11 +47519,14 @@
       <c r="HA74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HB74" t="n">
+      <c r="HB74" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HC74" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="2">
+    <row r="75" ht="13.8" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -47934,11 +48156,14 @@
       <c r="HA75" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HB75" t="n">
+      <c r="HB75" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="HC75" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="2">
+    <row r="76" ht="13.8" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -48568,11 +48793,14 @@
       <c r="HA76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HB76" t="n">
+      <c r="HB76" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HC76" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="2">
+    <row r="77" ht="13.8" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -49202,11 +49430,14 @@
       <c r="HA77" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HB77" t="n">
+      <c r="HB77" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="HC77" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="2">
+    <row r="78" ht="13.8" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -49836,11 +50067,14 @@
       <c r="HA78" s="1" t="n">
         <v>2.09</v>
       </c>
-      <c r="HB78" t="n">
+      <c r="HB78" s="1" t="n">
         <v>2.37</v>
       </c>
+      <c r="HC78" t="n">
+        <v>1.76</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="2">
+    <row r="79" ht="13.8" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -50470,11 +50704,14 @@
       <c r="HA79" s="1" t="n">
         <v>3.43</v>
       </c>
-      <c r="HB79" t="n">
+      <c r="HB79" s="1" t="n">
         <v>5.62</v>
       </c>
+      <c r="HC79" t="n">
+        <v>2.64</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="2">
+    <row r="80" ht="13.8" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -51104,11 +51341,14 @@
       <c r="HA80" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="HB80" t="n">
+      <c r="HB80" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="HC80" t="n">
+        <v>54.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="2">
+    <row r="81" ht="13.8" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -51738,11 +51978,14 @@
       <c r="HA81" s="1" t="n">
         <v>29.2</v>
       </c>
-      <c r="HB81" t="n">
+      <c r="HB81" s="1" t="n">
         <v>17.8</v>
       </c>
+      <c r="HC81" t="n">
+        <v>37.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="2">
+    <row r="82" ht="13.8" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -52372,11 +52615,14 @@
       <c r="HA82" s="1" t="n">
         <v>186.7</v>
       </c>
-      <c r="HB82" t="n">
+      <c r="HB82" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="HC82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="2">
+    <row r="83" ht="13.8" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -53006,11 +53252,14 @@
       <c r="HA83" s="1" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="HB83" t="n">
+      <c r="HB83" s="1" t="n">
         <v>85.7</v>
       </c>
+      <c r="HC83" t="n">
+        <v>88.59999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="2">
+    <row r="84" ht="13.8" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -53640,11 +53889,14 @@
       <c r="HA84" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="HB84" t="n">
+      <c r="HB84" s="1" t="n">
         <v>25.24</v>
       </c>
+      <c r="HC84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="2">
+    <row r="85" ht="13.8" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -54274,11 +54526,14 @@
       <c r="HA85" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="HB85" t="n">
+      <c r="HB85" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="HC85" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="2">
+    <row r="86" ht="13.8" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -54908,11 +55163,14 @@
       <c r="HA86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HB86" t="n">
+      <c r="HB86" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HC86" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="2">
+    <row r="87" ht="13.8" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -55542,11 +55800,14 @@
       <c r="HA87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HB87" t="n">
+      <c r="HB87" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC87" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="2">
+    <row r="88" ht="13.8" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -56176,11 +56437,14 @@
       <c r="HA88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HB88" t="n">
+      <c r="HB88" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HC88" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="2">
+    <row r="89" ht="13.8" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -56810,11 +57074,14 @@
       <c r="HA89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HB89" t="n">
+      <c r="HB89" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HC89" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="2">
+    <row r="90" ht="13.8" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -57444,11 +57711,14 @@
       <c r="HA90" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="HB90" t="n">
+      <c r="HB90" s="1" t="n">
         <v>131</v>
       </c>
+      <c r="HC90" t="n">
+        <v>125</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="2">
+    <row r="91" ht="13.8" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -58078,11 +58348,14 @@
       <c r="HA91" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="HB91" t="n">
+      <c r="HB91" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="HC91" t="n">
+        <v>195</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="2">
+    <row r="92" ht="13.8" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -58712,11 +58985,14 @@
       <c r="HA92" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="HB92" t="n">
+      <c r="HB92" s="1" t="n">
         <v>236</v>
       </c>
+      <c r="HC92" t="n">
+        <v>245</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="2">
+    <row r="93" ht="13.8" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -59346,11 +59622,14 @@
       <c r="HA93" s="1" t="n">
         <v>69.8</v>
       </c>
-      <c r="HB93" t="n">
+      <c r="HB93" s="1" t="n">
         <v>74.40000000000001</v>
       </c>
+      <c r="HC93" t="n">
+        <v>77.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="2">
+    <row r="94" ht="13.8" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -59980,11 +60259,14 @@
       <c r="HA94" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HB94" t="n">
+      <c r="HB94" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="HC94" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="2">
+    <row r="95" ht="13.8" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -60614,11 +60896,14 @@
       <c r="HA95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HB95" t="n">
+      <c r="HB95" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HC95" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="2">
+    <row r="96" ht="13.8" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -61248,11 +61533,14 @@
       <c r="HA96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HB96" t="n">
+      <c r="HB96" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HC96" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="2">
+    <row r="97" ht="13.8" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -61882,11 +62170,14 @@
       <c r="HA97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HB97" t="n">
+      <c r="HB97" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HC97" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="2">
+    <row r="98" ht="13.8" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -62516,11 +62807,14 @@
       <c r="HA98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HB98" t="n">
+      <c r="HB98" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HC98" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="2">
+    <row r="99" ht="13.8" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -63150,11 +63444,14 @@
       <c r="HA99" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HB99" t="n">
+      <c r="HB99" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="HC99" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="2">
+    <row r="100" ht="13.8" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -63784,11 +64081,14 @@
       <c r="HA100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HB100" t="n">
+      <c r="HB100" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HC100" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="2">
+    <row r="101" ht="13.8" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -64418,11 +64718,14 @@
       <c r="HA101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HB101" t="n">
+      <c r="HB101" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HC101" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="2">
+    <row r="102" ht="13.8" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -65052,13 +65355,16 @@
       <c r="HA102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HB102" t="n">
+      <c r="HB102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HC102" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Essendon_stats.xlsx
+++ b/Essendon_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HC102"/>
+  <dimension ref="A1:HF102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GP77" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="GV100" activeCellId="0" pane="topLeft" sqref="GV100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1021,11 +1021,20 @@
       <c r="HB1" s="1" t="n">
         <v>10232</v>
       </c>
-      <c r="HC1" t="n">
+      <c r="HC1" s="1" t="n">
         <v>10239</v>
       </c>
+      <c r="HD1" s="1" t="n">
+        <v>10251</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>10259</v>
+      </c>
+      <c r="HF1" t="n">
+        <v>10266</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="2" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1658,11 +1667,20 @@
       <c r="HB2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HC2" t="n">
+      <c r="HC2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HD2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HE2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="3" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2295,11 +2313,20 @@
       <c r="HB3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HC3" t="n">
+      <c r="HC3" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HD3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="4" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -2932,11 +2959,20 @@
       <c r="HB4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HC4" t="n">
+      <c r="HC4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HD4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="5" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3569,11 +3605,20 @@
       <c r="HB5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HC5" t="n">
+      <c r="HC5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="6" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4206,11 +4251,20 @@
       <c r="HB6" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HC6" t="n">
+      <c r="HC6" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="HD6" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HE6" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="7" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -4843,11 +4897,20 @@
       <c r="HB7" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HC7" t="n">
+      <c r="HC7" s="1" t="n">
         <v>91</v>
       </c>
+      <c r="HD7" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HE7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="8" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5480,11 +5543,20 @@
       <c r="HB8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HC8" t="n">
+      <c r="HC8" s="1" t="n">
         <v>-63</v>
       </c>
+      <c r="HD8" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="HE8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>-35</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="9" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6117,11 +6189,20 @@
       <c r="HB9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HC9" t="n">
+      <c r="HC9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HD9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="10" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -6754,11 +6835,20 @@
       <c r="HB10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HC10" t="n">
+      <c r="HC10" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HD10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="11" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7391,11 +7481,20 @@
       <c r="HB11" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="HC11" t="n">
+      <c r="HC11" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="HD11" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="HE11" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>172</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="12" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8028,11 +8127,20 @@
       <c r="HB12" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="HC12" t="n">
+      <c r="HC12" s="1" t="n">
         <v>108</v>
       </c>
+      <c r="HD12" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="HE12" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>135</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="13" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -8665,11 +8773,20 @@
       <c r="HB13" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="HC13" t="n">
+      <c r="HC13" s="1" t="n">
         <v>248</v>
       </c>
+      <c r="HD13" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="HE13" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>307</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="14" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9302,11 +9419,20 @@
       <c r="HB14" s="1" t="n">
         <v>1.21</v>
       </c>
-      <c r="HC14" t="n">
+      <c r="HC14" s="1" t="n">
         <v>1.3</v>
       </c>
+      <c r="HD14" s="1" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="HE14" s="1" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="15" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -9939,11 +10065,20 @@
       <c r="HB15" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HC15" t="n">
+      <c r="HC15" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HD15" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="HE15" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>80</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="16" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -10576,11 +10711,20 @@
       <c r="HB16" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="HC16" t="n">
+      <c r="HC16" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="HD16" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE16" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="17" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11213,11 +11357,20 @@
       <c r="HB17" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HC17" t="n">
+      <c r="HC17" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HD17" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HE17" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="18" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -11850,11 +12003,20 @@
       <c r="HB18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HC18" t="n">
+      <c r="HC18" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HD18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HE18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="19" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -12487,11 +12649,20 @@
       <c r="HB19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HC19" t="n">
+      <c r="HC19" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="HD19" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HE19" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="20" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13124,11 +13295,20 @@
       <c r="HB20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HC20" t="n">
+      <c r="HC20" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HD20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HF20" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="21" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -13761,11 +13941,20 @@
       <c r="HB21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HC21" t="n">
+      <c r="HC21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HD21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HF21" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="22" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -14398,11 +14587,20 @@
       <c r="HB22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HC22" t="n">
+      <c r="HC22" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HD22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF22" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="23" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -15035,11 +15233,20 @@
       <c r="HB23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HC23" t="n">
+      <c r="HC23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HD23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="24" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -15672,11 +15879,20 @@
       <c r="HB24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HC24" t="n">
+      <c r="HC24" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="HD24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HE24" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="25" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -16309,11 +16525,20 @@
       <c r="HB25" s="1" t="n">
         <v>52.9</v>
       </c>
-      <c r="HC25" t="n">
+      <c r="HC25" s="1" t="n">
         <v>23.1</v>
       </c>
+      <c r="HD25" s="1" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="HE25" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HF25" t="n">
+        <v>62.5</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="26" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -16946,11 +17171,20 @@
       <c r="HB26" s="1" t="n">
         <v>35.78</v>
       </c>
-      <c r="HC26" t="n">
+      <c r="HC26" s="1" t="n">
         <v>82.67</v>
       </c>
+      <c r="HD26" s="1" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="HE26" s="1" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="HF26" t="n">
+        <v>61.4</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="27" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -17583,11 +17817,20 @@
       <c r="HB27" s="1" t="n">
         <v>18.94</v>
       </c>
-      <c r="HC27" t="n">
+      <c r="HC27" s="1" t="n">
         <v>19.08</v>
       </c>
+      <c r="HD27" s="1" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="HE27" s="1" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="HF27" t="n">
+        <v>38.38</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="28" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -18220,11 +18463,20 @@
       <c r="HB28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HC28" t="n">
+      <c r="HC28" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HD28" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HF28" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="29" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -18857,11 +19109,20 @@
       <c r="HB29" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HC29" t="n">
+      <c r="HC29" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="HD29" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="HE29" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HF29" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="30" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -19494,11 +19755,20 @@
       <c r="HB30" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HC30" t="n">
+      <c r="HC30" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HD30" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HE30" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HF30" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="31" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -20131,11 +20401,20 @@
       <c r="HB31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HC31" t="n">
+      <c r="HC31" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HD31" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HE31" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HF31" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="32" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -20768,11 +21047,20 @@
       <c r="HB32" s="1" t="n">
         <v>2.76</v>
       </c>
-      <c r="HC32" t="n">
+      <c r="HC32" s="1" t="n">
         <v>3.23</v>
       </c>
+      <c r="HD32" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="HE32" s="1" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="HF32" t="n">
+        <v>5.25</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="33" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -21405,11 +21693,20 @@
       <c r="HB33" s="1" t="n">
         <v>5.22</v>
       </c>
-      <c r="HC33" t="n">
+      <c r="HC33" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HD33" s="1" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="HE33" s="1" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="HF33" t="n">
+        <v>8.4</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="34" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -22042,11 +22339,20 @@
       <c r="HB34" s="1" t="n">
         <v>31.9</v>
       </c>
-      <c r="HC34" t="n">
+      <c r="HC34" s="1" t="n">
         <v>28.6</v>
       </c>
+      <c r="HD34" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HE34" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HF34" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="35" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -22679,11 +22985,20 @@
       <c r="HB35" s="1" t="n">
         <v>19.1</v>
       </c>
-      <c r="HC35" t="n">
+      <c r="HC35" s="1" t="n">
         <v>7.1</v>
       </c>
+      <c r="HD35" s="1" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="HE35" s="1" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="HF35" t="n">
+        <v>11.9</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="36" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -23316,11 +23631,20 @@
       <c r="HB36" s="1" t="n">
         <v>185.1</v>
       </c>
-      <c r="HC36" t="n">
+      <c r="HC36" s="1" t="n">
         <v>186</v>
       </c>
+      <c r="HD36" s="1" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="HE36" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="HF36" t="n">
+        <v>187</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="37" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -23953,11 +24277,20 @@
       <c r="HB37" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="HC37" t="n">
+      <c r="HC37" s="1" t="n">
         <v>85.5</v>
       </c>
+      <c r="HD37" s="1" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="HE37" s="1" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="HF37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="38" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -24590,11 +24923,20 @@
       <c r="HB38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HC38" t="n">
+      <c r="HC38" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="HD38" s="1" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="HE38" s="1" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="HF38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="39" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -25227,11 +25569,20 @@
       <c r="HB39" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="HC39" t="n">
+      <c r="HC39" s="1" t="n">
         <v>77.09999999999999</v>
       </c>
+      <c r="HD39" s="1" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="HE39" s="1" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="HF39" t="n">
+        <v>67.2</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="40" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -25864,11 +26215,20 @@
       <c r="HB40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HC40" t="n">
+      <c r="HC40" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HD40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HF40" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="41" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -26501,11 +26861,20 @@
       <c r="HB41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HC41" t="n">
+      <c r="HC41" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HD41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HF41" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="42" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -27138,11 +27507,20 @@
       <c r="HB42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HC42" t="n">
+      <c r="HC42" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HD42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HF42" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="43" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -27775,11 +28153,20 @@
       <c r="HB43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HC43" t="n">
+      <c r="HC43" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HD43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF43" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="44" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -28412,11 +28799,20 @@
       <c r="HB44" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="HC44" t="n">
+      <c r="HC44" s="1" t="n">
         <v>110</v>
       </c>
+      <c r="HD44" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="HE44" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="HF44" t="n">
+        <v>90</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="45" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -29049,11 +29445,20 @@
       <c r="HB45" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="HC45" t="n">
+      <c r="HC45" s="1" t="n">
         <v>133</v>
       </c>
+      <c r="HD45" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="HE45" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="HF45" t="n">
+        <v>209</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="46" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -29686,11 +30091,20 @@
       <c r="HB46" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="HC46" t="n">
+      <c r="HC46" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="HD46" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="HE46" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="HF46" t="n">
+        <v>236</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="47" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -30323,11 +30737,20 @@
       <c r="HB47" s="1" t="n">
         <v>68.3</v>
       </c>
-      <c r="HC47" t="n">
+      <c r="HC47" s="1" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="HD47" s="1" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="HE47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HF47" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="48" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -30960,11 +31383,20 @@
       <c r="HB48" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HC48" t="n">
+      <c r="HC48" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="HD48" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="HE48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HF48" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="49" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -31597,11 +32029,20 @@
       <c r="HB49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HC49" t="n">
+      <c r="HC49" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HD49" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HF49" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="50" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -32234,11 +32675,20 @@
       <c r="HB50" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HC50" t="n">
+      <c r="HC50" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HD50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE50" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HF50" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="51" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -32871,11 +33321,20 @@
       <c r="HB51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HC51" t="n">
+      <c r="HC51" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HD51" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE51" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HF51" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="52" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -33508,11 +33967,20 @@
       <c r="HB52" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HC52" t="n">
+      <c r="HC52" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HD52" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HE52" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HF52" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="53" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -34145,11 +34613,20 @@
       <c r="HB53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HC53" t="n">
+      <c r="HC53" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="HD53" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE53" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HF53" t="n">
+        <v>39</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="54" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -34782,11 +35259,20 @@
       <c r="HB54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HC54" t="n">
+      <c r="HC54" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HD54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HF54" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="55" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -35419,11 +35905,20 @@
       <c r="HB55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HC55" t="n">
+      <c r="HC55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HD55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HF55" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="56" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -36056,11 +36551,20 @@
       <c r="HB56" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="HC56" t="n">
+      <c r="HC56" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HD56" s="1" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HE56" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="HF56" t="n">
+        <v>100</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="57" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -36693,11 +37197,20 @@
       <c r="HB57" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="HC57" t="n">
+      <c r="HC57" s="1" t="n">
         <v>210</v>
       </c>
+      <c r="HD57" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="HE57" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="HF57" t="n">
+        <v>191</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="58" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -37330,11 +37843,20 @@
       <c r="HB58" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="HC58" t="n">
+      <c r="HC58" s="1" t="n">
         <v>107</v>
       </c>
+      <c r="HD58" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="HE58" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="HF58" t="n">
+        <v>107</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="59" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -37967,11 +38489,20 @@
       <c r="HB59" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="HC59" t="n">
+      <c r="HC59" s="1" t="n">
         <v>317</v>
       </c>
+      <c r="HD59" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="HE59" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="HF59" t="n">
+        <v>298</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="60" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -38604,11 +39135,20 @@
       <c r="HB60" s="1" t="n">
         <v>1.11</v>
       </c>
-      <c r="HC60" t="n">
+      <c r="HC60" s="1" t="n">
         <v>1.96</v>
       </c>
+      <c r="HD60" s="1" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="HE60" s="1" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="HF60" t="n">
+        <v>1.79</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="61" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -39241,11 +39781,20 @@
       <c r="HB61" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HC61" t="n">
+      <c r="HC61" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="HD61" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HE61" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="HF61" t="n">
+        <v>98</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="62" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -39878,11 +40427,20 @@
       <c r="HB62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HC62" t="n">
+      <c r="HC62" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HD62" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HE62" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HF62" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="63" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -40515,11 +41073,20 @@
       <c r="HB63" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HC63" t="n">
+      <c r="HC63" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="HD63" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HE63" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HF63" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="64" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -41152,11 +41719,20 @@
       <c r="HB64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HC64" t="n">
+      <c r="HC64" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="HD64" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HE64" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HF64" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="65" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -41789,11 +42365,20 @@
       <c r="HB65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HC65" t="n">
+      <c r="HC65" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HD65" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HE65" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HF65" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="66" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -42426,11 +43011,20 @@
       <c r="HB66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HC66" t="n">
+      <c r="HC66" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HD66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HF66" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="67" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -43063,11 +43657,20 @@
       <c r="HB67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HC67" t="n">
+      <c r="HC67" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HD67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF67" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="68" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -43700,11 +44303,20 @@
       <c r="HB68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HC68" t="n">
+      <c r="HC68" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HD68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF68" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="69" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -44337,11 +44949,20 @@
       <c r="HB69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HC69" t="n">
+      <c r="HC69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HD69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF69" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="70" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -44974,11 +45595,20 @@
       <c r="HB70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HC70" t="n">
+      <c r="HC70" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HD70" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HE70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HF70" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="71" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -45611,11 +46241,20 @@
       <c r="HB71" s="1" t="n">
         <v>42.1</v>
       </c>
-      <c r="HC71" t="n">
+      <c r="HC71" s="1" t="n">
         <v>66.7</v>
       </c>
+      <c r="HD71" s="1" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="HE71" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HF71" t="n">
+        <v>55.6</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="72" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -46248,11 +46887,20 @@
       <c r="HB72" s="1" t="n">
         <v>39.62</v>
       </c>
-      <c r="HC72" t="n">
+      <c r="HC72" s="1" t="n">
         <v>22.64</v>
       </c>
+      <c r="HD72" s="1" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="HE72" s="1" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="HF72" t="n">
+        <v>29.8</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="73" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -46885,11 +47533,20 @@
       <c r="HB73" s="1" t="n">
         <v>16.68</v>
       </c>
-      <c r="HC73" t="n">
+      <c r="HC73" s="1" t="n">
         <v>15.1</v>
       </c>
+      <c r="HD73" s="1" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="HE73" s="1" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="HF73" t="n">
+        <v>16.56</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="74" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -47522,11 +48179,20 @@
       <c r="HB74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HC74" t="n">
+      <c r="HC74" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HD74" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE74" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HF74" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="75" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -48159,11 +48825,20 @@
       <c r="HB75" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HC75" t="n">
+      <c r="HC75" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="HD75" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="HE75" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HF75" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="76" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -48796,11 +49471,20 @@
       <c r="HB76" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HC76" t="n">
+      <c r="HC76" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HD76" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HE76" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HF76" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="77" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -49433,11 +50117,20 @@
       <c r="HB77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HC77" t="n">
+      <c r="HC77" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HD77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HE77" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HF77" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="78" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -50070,11 +50763,20 @@
       <c r="HB78" s="1" t="n">
         <v>2.37</v>
       </c>
-      <c r="HC78" t="n">
+      <c r="HC78" s="1" t="n">
         <v>1.76</v>
       </c>
+      <c r="HD78" s="1" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="HE78" s="1" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="HF78" t="n">
+        <v>2.06</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="79" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -50707,11 +51409,20 @@
       <c r="HB79" s="1" t="n">
         <v>5.62</v>
       </c>
-      <c r="HC79" t="n">
+      <c r="HC79" s="1" t="n">
         <v>2.64</v>
       </c>
+      <c r="HD79" s="1" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="HE79" s="1" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="HF79" t="n">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="80" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -51344,11 +52055,20 @@
       <c r="HB80" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HC80" t="n">
+      <c r="HC80" s="1" t="n">
         <v>54.1</v>
       </c>
+      <c r="HD80" s="1" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="HE80" s="1" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="HF80" t="n">
+        <v>43.2</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="81" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -51981,11 +52701,20 @@
       <c r="HB81" s="1" t="n">
         <v>17.8</v>
       </c>
-      <c r="HC81" t="n">
+      <c r="HC81" s="1" t="n">
         <v>37.8</v>
       </c>
+      <c r="HD81" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HE81" s="1" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="HF81" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="82" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -52618,11 +53347,20 @@
       <c r="HB82" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HC82" t="n">
+      <c r="HC82" s="1" t="n">
         <v>188.6</v>
       </c>
+      <c r="HD82" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HE82" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HF82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="83" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -53255,11 +53993,20 @@
       <c r="HB83" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="HC83" t="n">
+      <c r="HC83" s="1" t="n">
         <v>88.59999999999999</v>
       </c>
+      <c r="HD83" s="1" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="HE83" s="1" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="HF83" t="n">
+        <v>84.2</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="84" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -53892,11 +54639,20 @@
       <c r="HB84" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="HC84" t="n">
+      <c r="HC84" s="1" t="n">
         <v>24.8</v>
       </c>
+      <c r="HD84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HE84" s="1" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="HF84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="85" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -54529,11 +55285,20 @@
       <c r="HB85" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="HC85" t="n">
+      <c r="HC85" s="1" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="HD85" s="1" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="HE85" s="1" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="HF85" t="n">
+        <v>77.90000000000001</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="86" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -55166,11 +55931,20 @@
       <c r="HB86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HC86" t="n">
+      <c r="HC86" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HD86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE86" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HF86" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="87" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -55803,11 +56577,20 @@
       <c r="HB87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HC87" t="n">
+      <c r="HC87" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HD87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF87" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="88" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -56440,11 +57223,20 @@
       <c r="HB88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HC88" t="n">
+      <c r="HC88" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HD88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HF88" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="89" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -57077,11 +57869,20 @@
       <c r="HB89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HC89" t="n">
+      <c r="HC89" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HD89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF89" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="90" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -57714,11 +58515,20 @@
       <c r="HB90" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="HC90" t="n">
+      <c r="HC90" s="1" t="n">
         <v>125</v>
       </c>
+      <c r="HD90" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="HE90" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="HF90" t="n">
+        <v>107</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="91" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -58351,11 +59161,20 @@
       <c r="HB91" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HC91" t="n">
+      <c r="HC91" s="1" t="n">
         <v>195</v>
       </c>
+      <c r="HD91" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="HE91" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="HF91" t="n">
+        <v>192</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="92" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -58988,11 +59807,20 @@
       <c r="HB92" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="HC92" t="n">
+      <c r="HC92" s="1" t="n">
         <v>245</v>
       </c>
+      <c r="HD92" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="HE92" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="HF92" t="n">
+        <v>208</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="93" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -59625,11 +60453,20 @@
       <c r="HB93" s="1" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="HC93" t="n">
+      <c r="HC93" s="1" t="n">
         <v>77.3</v>
       </c>
+      <c r="HD93" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HE93" s="1" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="HF93" t="n">
+        <v>69.8</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="94" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -60262,11 +61099,20 @@
       <c r="HB94" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HC94" t="n">
+      <c r="HC94" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="HD94" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="HE94" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HF94" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="95" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -60899,11 +61745,20 @@
       <c r="HB95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HC95" t="n">
+      <c r="HC95" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HD95" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE95" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HF95" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="96" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -61536,11 +62391,20 @@
       <c r="HB96" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HC96" t="n">
+      <c r="HC96" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="HD96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE96" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HF96" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="97" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -62173,11 +63037,20 @@
       <c r="HB97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HC97" t="n">
+      <c r="HC97" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HD97" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE97" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HF97" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="98" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -62810,11 +63683,20 @@
       <c r="HB98" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HC98" t="n">
+      <c r="HC98" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HD98" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HE98" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HF98" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="99" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -63447,11 +64329,20 @@
       <c r="HB99" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HC99" t="n">
+      <c r="HC99" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HD99" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HE99" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HF99" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="100" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -64084,11 +64975,20 @@
       <c r="HB100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HC100" t="n">
+      <c r="HC100" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HD100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF100" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="101" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -64721,11 +65621,20 @@
       <c r="HB101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HC101" t="n">
+      <c r="HC101" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HD101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF101" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="102" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -65358,13 +66267,22 @@
       <c r="HB102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HC102" t="n">
+      <c r="HC102" s="1" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="HD102" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HE102" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="HF102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Essendon_stats.xlsx
+++ b/Essendon_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HF102"/>
+  <dimension ref="A1:HL102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GP77" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="GV100" activeCellId="0" pane="topLeft" sqref="GV100"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
+    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="2">
+    <row r="1" ht="13.8" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1030,11 +1030,29 @@
       <c r="HE1" s="1" t="n">
         <v>10259</v>
       </c>
-      <c r="HF1" t="n">
+      <c r="HF1" s="1" t="n">
         <v>10266</v>
       </c>
+      <c r="HG1" s="1" t="n">
+        <v>10272</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>10278</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>10287</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>10294</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>10303</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>10311</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="2">
+    <row r="2" ht="13.8" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1676,11 +1694,29 @@
       <c r="HE2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HF2" t="n">
+      <c r="HF2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HG2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HH2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HI2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HJ2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HK2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="2">
+    <row r="3" ht="13.8" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2322,11 +2358,29 @@
       <c r="HE3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HF3" t="n">
+      <c r="HF3" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="HG3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH3" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HI3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HJ3" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HK3" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="2">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -2968,11 +3022,29 @@
       <c r="HE4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HF4" t="n">
+      <c r="HF4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HG4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="2">
+    <row r="5" ht="13.8" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3614,11 +3686,29 @@
       <c r="HE5" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="HF5" t="n">
+      <c r="HF5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="2">
+    <row r="6" ht="13.8" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4260,11 +4350,29 @@
       <c r="HE6" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HF6" t="n">
+      <c r="HF6" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="HG6" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="HH6" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="HI6" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HJ6" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HK6" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>49</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="2">
+    <row r="7" ht="13.8" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -4906,11 +5014,29 @@
       <c r="HE7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HF7" t="n">
+      <c r="HF7" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="HG7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="HH7" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="HI7" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HJ7" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="HK7" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>68</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="2">
+    <row r="8" ht="13.8" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5552,11 +5678,29 @@
       <c r="HE8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HF8" t="n">
+      <c r="HF8" s="1" t="n">
         <v>-35</v>
       </c>
+      <c r="HG8" s="1" t="n">
+        <v>-12</v>
+      </c>
+      <c r="HH8" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HI8" s="1" t="n">
+        <v>-15</v>
+      </c>
+      <c r="HJ8" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="HK8" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>-19</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="2">
+    <row r="9" ht="13.8" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6198,11 +6342,29 @@
       <c r="HE9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="HF9" t="n">
+      <c r="HF9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="2">
+    <row r="10" ht="13.8" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -6844,11 +7006,29 @@
       <c r="HE10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HF10" t="n">
+      <c r="HF10" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="HG10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI10" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HJ10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK10" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="2">
+    <row r="11" ht="13.8" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7490,11 +7670,29 @@
       <c r="HE11" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="HF11" t="n">
+      <c r="HF11" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="HG11" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="HH11" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="HI11" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="HJ11" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="HK11" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>171</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="2">
+    <row r="12" ht="13.8" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8136,11 +8334,29 @@
       <c r="HE12" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="HF12" t="n">
+      <c r="HF12" s="1" t="n">
         <v>135</v>
       </c>
+      <c r="HG12" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="HH12" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="HI12" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="HJ12" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="HK12" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>150</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="2">
+    <row r="13" ht="13.8" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -8782,11 +8998,29 @@
       <c r="HE13" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="HF13" t="n">
+      <c r="HF13" s="1" t="n">
         <v>307</v>
       </c>
+      <c r="HG13" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="HH13" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="HI13" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="HJ13" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="HK13" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>321</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="2">
+    <row r="14" ht="13.8" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9428,11 +9662,29 @@
       <c r="HE14" s="1" t="n">
         <v>1.26</v>
       </c>
-      <c r="HF14" t="n">
+      <c r="HF14" s="1" t="n">
         <v>1.27</v>
       </c>
+      <c r="HG14" s="1" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="HH14" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="HI14" s="1" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="HJ14" s="1" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="HK14" s="1" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="HL14" t="n">
+        <v>1.14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="2">
+    <row r="15" ht="13.8" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10074,11 +10326,29 @@
       <c r="HE15" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="HF15" t="n">
+      <c r="HF15" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="HG15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="HH15" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="HI15" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="HJ15" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="HK15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HL15" t="n">
+        <v>79</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="2">
+    <row r="16" ht="13.8" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -10720,11 +10990,29 @@
       <c r="HE16" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HF16" t="n">
+      <c r="HF16" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HG16" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HH16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HI16" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HJ16" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="HK16" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="2">
+    <row r="17" ht="13.8" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11366,11 +11654,29 @@
       <c r="HE17" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HF17" t="n">
+      <c r="HF17" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="HG17" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HH17" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HI17" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HJ17" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HK17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="2">
+    <row r="18" ht="13.8" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -12012,11 +12318,29 @@
       <c r="HE18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HF18" t="n">
+      <c r="HF18" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HG18" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HH18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HI18" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HJ18" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HL18" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="2">
+    <row r="19" ht="13.8" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -12658,11 +12982,29 @@
       <c r="HE19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HF19" t="n">
+      <c r="HF19" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HG19" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HI19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HJ19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HL19" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="2">
+    <row r="20" ht="13.8" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13304,11 +13646,29 @@
       <c r="HE20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HF20" t="n">
+      <c r="HF20" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HG20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH20" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL20" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="2">
+    <row r="21" ht="13.8" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -13950,11 +14310,29 @@
       <c r="HE21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HF21" t="n">
+      <c r="HF21" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HG21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL21" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="2">
+    <row r="22" ht="13.8" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -14596,11 +14974,29 @@
       <c r="HE22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HF22" t="n">
+      <c r="HF22" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HG22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HJ22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL22" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="2">
+    <row r="23" ht="13.8" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -15242,11 +15638,29 @@
       <c r="HE23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HF23" t="n">
+      <c r="HF23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HG23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL23" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="2">
+    <row r="24" ht="13.8" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -15888,11 +16302,29 @@
       <c r="HE24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HF24" t="n">
+      <c r="HF24" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HG24" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HH24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HI24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HJ24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HK24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="2">
+    <row r="25" ht="13.8" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -16534,11 +16966,29 @@
       <c r="HE25" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="HF25" t="n">
+      <c r="HF25" s="1" t="n">
         <v>62.5</v>
       </c>
+      <c r="HG25" s="1" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="HH25" s="1" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="HI25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HJ25" s="1" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HK25" s="1" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="HL25" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="2">
+    <row r="26" ht="13.8" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -17180,11 +17630,29 @@
       <c r="HE26" s="1" t="n">
         <v>28.82</v>
       </c>
-      <c r="HF26" t="n">
+      <c r="HF26" s="1" t="n">
         <v>61.4</v>
       </c>
+      <c r="HG26" s="1" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="HH26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HI26" s="1" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="HJ26" s="1" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="HK26" s="1" t="n">
+        <v>70.75</v>
+      </c>
+      <c r="HL26" t="n">
+        <v>45.86</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="2">
+    <row r="27" ht="13.8" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -17826,11 +18294,29 @@
       <c r="HE27" s="1" t="n">
         <v>17.61</v>
       </c>
-      <c r="HF27" t="n">
+      <c r="HF27" s="1" t="n">
         <v>38.38</v>
       </c>
+      <c r="HG27" s="1" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="HH27" s="1" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="HI27" s="1" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="HJ27" s="1" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="HK27" s="1" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="HL27" t="n">
+        <v>22.93</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="2">
+    <row r="28" ht="13.8" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -18472,11 +18958,29 @@
       <c r="HE28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HF28" t="n">
+      <c r="HF28" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="HG28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HH28" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HI28" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HJ28" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HK28" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HL28" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="2">
+    <row r="29" ht="13.8" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -19118,11 +19622,29 @@
       <c r="HE29" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HF29" t="n">
+      <c r="HF29" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HG29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HH29" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HI29" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ29" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HK29" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="HL29" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="2">
+    <row r="30" ht="13.8" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -19764,11 +20286,29 @@
       <c r="HE30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HF30" t="n">
+      <c r="HF30" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="HG30" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="HH30" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HI30" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HJ30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HK30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HL30" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="2">
+    <row r="31" ht="13.8" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -20410,11 +20950,29 @@
       <c r="HE31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HF31" t="n">
+      <c r="HF31" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HG31" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HH31" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HI31" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="HJ31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HK31" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HL31" t="n">
+        <v>44</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="2">
+    <row r="32" ht="13.8" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -21056,11 +21614,29 @@
       <c r="HE32" s="1" t="n">
         <v>2.67</v>
       </c>
-      <c r="HF32" t="n">
+      <c r="HF32" s="1" t="n">
         <v>5.25</v>
       </c>
+      <c r="HG32" s="1" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="HH32" s="1" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="HI32" s="1" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="HJ32" s="1" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="HK32" s="1" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="HL32" t="n">
+        <v>3.14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="2">
+    <row r="33" ht="13.8" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -21702,11 +22278,29 @@
       <c r="HE33" s="1" t="n">
         <v>4.36</v>
       </c>
-      <c r="HF33" t="n">
+      <c r="HF33" s="1" t="n">
         <v>8.4</v>
       </c>
+      <c r="HG33" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="HH33" s="1" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="HI33" s="1" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="HJ33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HL33" t="n">
+        <v>6.29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="2">
+    <row r="34" ht="13.8" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -22348,11 +22942,29 @@
       <c r="HE34" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="HF34" t="n">
+      <c r="HF34" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="HG34" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="HH34" s="1" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="HI34" s="1" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="HJ34" s="1" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="HK34" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HL34" t="n">
+        <v>29.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="2">
+    <row r="35" ht="13.8" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -22994,11 +23606,29 @@
       <c r="HE35" s="1" t="n">
         <v>22.9</v>
       </c>
-      <c r="HF35" t="n">
+      <c r="HF35" s="1" t="n">
         <v>11.9</v>
       </c>
+      <c r="HG35" s="1" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="HH35" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="HI35" s="1" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="HJ35" s="1" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="HK35" s="1" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="HL35" t="n">
+        <v>15.9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="2">
+    <row r="36" ht="13.8" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -23640,11 +24270,29 @@
       <c r="HE36" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="HF36" t="n">
+      <c r="HF36" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="HG36" s="1" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="HH36" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="HI36" s="1" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="HJ36" s="1" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="HK36" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HL36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="2">
+    <row r="37" ht="13.8" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -24286,11 +24934,29 @@
       <c r="HE37" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="HF37" t="n">
+      <c r="HF37" s="1" t="n">
         <v>87.5</v>
       </c>
+      <c r="HG37" s="1" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="HH37" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="HI37" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="HJ37" s="1" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="HK37" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="HL37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="2">
+    <row r="38" ht="13.8" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -24932,11 +25598,29 @@
       <c r="HE38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="HF38" t="n">
+      <c r="HF38" s="1" t="n">
         <v>24.66</v>
       </c>
+      <c r="HG38" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="HH38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="HI38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HJ38" s="1" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="HK38" s="1" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="HL38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="2">
+    <row r="39" ht="13.8" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -25578,11 +26262,29 @@
       <c r="HE39" s="1" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="HF39" t="n">
+      <c r="HF39" s="1" t="n">
         <v>67.2</v>
       </c>
+      <c r="HG39" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="HH39" s="1" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="HI39" s="1" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="HJ39" s="1" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HK39" s="1" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="HL39" t="n">
+        <v>79.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="2">
+    <row r="40" ht="13.8" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -26224,11 +26926,29 @@
       <c r="HE40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HF40" t="n">
+      <c r="HF40" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HG40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HL40" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="2">
+    <row r="41" ht="13.8" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -26870,11 +27590,29 @@
       <c r="HE41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HF41" t="n">
+      <c r="HF41" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HG41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HL41" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="2">
+    <row r="42" ht="13.8" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -27516,11 +28254,29 @@
       <c r="HE42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HF42" t="n">
+      <c r="HF42" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HG42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL42" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="2">
+    <row r="43" ht="13.8" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -28162,11 +28918,29 @@
       <c r="HE43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HF43" t="n">
+      <c r="HF43" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HG43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL43" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="2">
+    <row r="44" ht="13.8" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -28808,11 +29582,29 @@
       <c r="HE44" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="HF44" t="n">
+      <c r="HF44" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="HG44" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="HH44" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="HI44" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="HJ44" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="HK44" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="HL44" t="n">
+        <v>100</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="2">
+    <row r="45" ht="13.8" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -29454,11 +30246,29 @@
       <c r="HE45" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HF45" t="n">
+      <c r="HF45" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="HG45" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="HH45" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="HI45" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HJ45" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="HK45" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="HL45" t="n">
+        <v>220</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="2">
+    <row r="46" ht="13.8" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -30100,11 +30910,29 @@
       <c r="HE46" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="HF46" t="n">
+      <c r="HF46" s="1" t="n">
         <v>236</v>
       </c>
+      <c r="HG46" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="HH46" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="HI46" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="HJ46" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="HK46" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="HL46" t="n">
+        <v>264</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="2">
+    <row r="47" ht="13.8" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -30746,11 +31574,29 @@
       <c r="HE47" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="HF47" t="n">
+      <c r="HF47" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="HG47" s="1" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="HH47" s="1" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="HI47" s="1" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="HJ47" s="1" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="HK47" s="1" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="HL47" t="n">
+        <v>82.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="2">
+    <row r="48" ht="13.8" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -31392,11 +32238,29 @@
       <c r="HE48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HF48" t="n">
+      <c r="HF48" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HG48" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HH48" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HI48" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ48" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HK48" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="HL48" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="2">
+    <row r="49" ht="13.8" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -32038,11 +32902,29 @@
       <c r="HE49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HF49" t="n">
+      <c r="HF49" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HG49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HL49" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="2">
+    <row r="50" ht="13.8" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -32684,11 +33566,29 @@
       <c r="HE50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HF50" t="n">
+      <c r="HF50" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HG50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HH50" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL50" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="2">
+    <row r="51" ht="13.8" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -33330,11 +34230,29 @@
       <c r="HE51" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HF51" t="n">
+      <c r="HF51" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="HG51" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HH51" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HI51" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HJ51" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HK51" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HL51" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="2">
+    <row r="52" ht="13.8" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -33976,11 +34894,29 @@
       <c r="HE52" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HF52" t="n">
+      <c r="HF52" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="HG52" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="HH52" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HI52" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HJ52" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HK52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HL52" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="2">
+    <row r="53" ht="13.8" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -34622,11 +35558,29 @@
       <c r="HE53" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HF53" t="n">
+      <c r="HF53" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="HG53" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HH53" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HI53" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HJ53" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HK53" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HL53" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="2">
+    <row r="54" ht="13.8" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -35268,11 +36222,29 @@
       <c r="HE54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HF54" t="n">
+      <c r="HF54" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HG54" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HH54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL54" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="2">
+    <row r="55" ht="13.8" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -35914,11 +36886,29 @@
       <c r="HE55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HF55" t="n">
+      <c r="HF55" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HG55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL55" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="2">
+    <row r="56" ht="13.8" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -36560,11 +37550,29 @@
       <c r="HE56" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="HF56" t="n">
+      <c r="HF56" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="HG56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="HH56" s="1" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="HI56" s="1" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HJ56" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="HK56" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HL56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="2">
+    <row r="57" ht="13.8" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -37206,11 +38214,29 @@
       <c r="HE57" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="HF57" t="n">
+      <c r="HF57" s="1" t="n">
         <v>191</v>
       </c>
+      <c r="HG57" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="HH57" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="HI57" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="HJ57" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="HK57" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="HL57" t="n">
+        <v>200</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="2">
+    <row r="58" ht="13.8" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -37852,11 +38878,29 @@
       <c r="HE58" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="HF58" t="n">
+      <c r="HF58" s="1" t="n">
         <v>107</v>
       </c>
+      <c r="HG58" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="HH58" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="HI58" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="HJ58" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="HK58" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="HL58" t="n">
+        <v>110</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="2">
+    <row r="59" ht="13.8" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -38498,11 +39542,29 @@
       <c r="HE59" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="HF59" t="n">
+      <c r="HF59" s="1" t="n">
         <v>298</v>
       </c>
+      <c r="HG59" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="HH59" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="HI59" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="HJ59" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="HK59" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="HL59" t="n">
+        <v>310</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="2">
+    <row r="60" ht="13.8" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -39144,11 +40206,29 @@
       <c r="HE60" s="1" t="n">
         <v>2.01</v>
       </c>
-      <c r="HF60" t="n">
+      <c r="HF60" s="1" t="n">
         <v>1.79</v>
       </c>
+      <c r="HG60" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="HH60" s="1" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="HI60" s="1" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="HJ60" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="HK60" s="1" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="HL60" t="n">
+        <v>1.82</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="2">
+    <row r="61" ht="13.8" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -39790,11 +40870,29 @@
       <c r="HE61" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HF61" t="n">
+      <c r="HF61" s="1" t="n">
         <v>98</v>
       </c>
+      <c r="HG61" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HH61" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="HI61" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="HJ61" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="HK61" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="HL61" t="n">
+        <v>117</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="2">
+    <row r="62" ht="13.8" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -40436,11 +41534,29 @@
       <c r="HE62" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HF62" t="n">
+      <c r="HF62" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HG62" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HH62" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HI62" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HJ62" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="HK62" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="HL62" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="2">
+    <row r="63" ht="13.8" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -41082,11 +42198,29 @@
       <c r="HE63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HF63" t="n">
+      <c r="HF63" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HG63" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HH63" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HI63" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HJ63" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HK63" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HL63" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="2">
+    <row r="64" ht="13.8" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -41728,11 +42862,29 @@
       <c r="HE64" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HF64" t="n">
+      <c r="HF64" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HG64" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH64" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HI64" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HJ64" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK64" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HL64" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="2">
+    <row r="65" ht="13.8" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -42374,11 +43526,29 @@
       <c r="HE65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HF65" t="n">
+      <c r="HF65" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HG65" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HH65" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HI65" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HJ65" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HL65" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="2">
+    <row r="66" ht="13.8" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -43020,11 +44190,29 @@
       <c r="HE66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HF66" t="n">
+      <c r="HF66" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HG66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HJ66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HK66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HL66" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="2">
+    <row r="67" ht="13.8" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -43666,11 +44854,29 @@
       <c r="HE67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HF67" t="n">
+      <c r="HF67" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HG67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ67" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL67" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="2">
+    <row r="68" ht="13.8" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -44312,11 +45518,29 @@
       <c r="HE68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HF68" t="n">
+      <c r="HF68" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HG68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL68" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="2">
+    <row r="69" ht="13.8" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -44958,11 +46182,29 @@
       <c r="HE69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HF69" t="n">
+      <c r="HF69" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HG69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL69" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="2">
+    <row r="70" ht="13.8" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -45604,11 +46846,29 @@
       <c r="HE70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HF70" t="n">
+      <c r="HF70" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="HG70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HH70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HI70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HJ70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HK70" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HL70" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="2">
+    <row r="71" ht="13.8" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -46250,11 +47510,29 @@
       <c r="HE71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="HF71" t="n">
+      <c r="HF71" s="1" t="n">
         <v>55.6</v>
       </c>
+      <c r="HG71" s="1" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="HH71" s="1" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="HI71" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HJ71" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="HK71" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="HL71" t="n">
+        <v>55.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="2">
+    <row r="72" ht="13.8" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -46896,11 +48174,29 @@
       <c r="HE72" s="1" t="n">
         <v>22.45</v>
       </c>
-      <c r="HF72" t="n">
+      <c r="HF72" s="1" t="n">
         <v>29.8</v>
       </c>
+      <c r="HG72" s="1" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="HH72" s="1" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="HI72" s="1" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="HJ72" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HK72" s="1" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="HL72" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="2">
+    <row r="73" ht="13.8" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -47542,11 +48838,29 @@
       <c r="HE73" s="1" t="n">
         <v>13.72</v>
       </c>
-      <c r="HF73" t="n">
+      <c r="HF73" s="1" t="n">
         <v>16.56</v>
       </c>
+      <c r="HG73" s="1" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="HH73" s="1" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="HI73" s="1" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="HJ73" s="1" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="HK73" s="1" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="HL73" t="n">
+        <v>17.22</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="2">
+    <row r="74" ht="13.8" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -48188,11 +49502,29 @@
       <c r="HE74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HF74" t="n">
+      <c r="HF74" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="HG74" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HH74" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HI74" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HJ74" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HK74" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HL74" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="2">
+    <row r="75" ht="13.8" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -48834,11 +50166,29 @@
       <c r="HE75" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HF75" t="n">
+      <c r="HF75" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HG75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="HH75" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HI75" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HJ75" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HK75" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HL75" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="2">
+    <row r="76" ht="13.8" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -49480,11 +50830,29 @@
       <c r="HE76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HF76" t="n">
+      <c r="HF76" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HG76" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH76" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HI76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HJ76" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK76" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HL76" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="2">
+    <row r="77" ht="13.8" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -50126,11 +51494,29 @@
       <c r="HE77" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HF77" t="n">
+      <c r="HF77" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HG77" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="HH77" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HI77" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ77" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HK77" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HL77" t="n">
+        <v>39</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="2">
+    <row r="78" ht="13.8" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -50772,11 +52158,29 @@
       <c r="HE78" s="1" t="n">
         <v>2.39</v>
       </c>
-      <c r="HF78" t="n">
+      <c r="HF78" s="1" t="n">
         <v>2.06</v>
       </c>
+      <c r="HG78" s="1" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="HH78" s="1" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="HI78" s="1" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="HJ78" s="1" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="HK78" s="1" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="HL78" t="n">
+        <v>2.17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="2">
+    <row r="79" ht="13.8" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -51418,11 +52822,29 @@
       <c r="HE79" s="1" t="n">
         <v>3.91</v>
       </c>
-      <c r="HF79" t="n">
+      <c r="HF79" s="1" t="n">
         <v>3.7</v>
       </c>
+      <c r="HG79" s="1" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="HH79" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="HI79" s="1" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="HJ79" s="1" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="HK79" s="1" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="HL79" t="n">
+        <v>3.9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="2">
+    <row r="80" ht="13.8" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -52064,11 +53486,29 @@
       <c r="HE80" s="1" t="n">
         <v>39.5</v>
       </c>
-      <c r="HF80" t="n">
+      <c r="HF80" s="1" t="n">
         <v>43.2</v>
       </c>
+      <c r="HG80" s="1" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="HH80" s="1" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="HI80" s="1" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="HJ80" s="1" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="HK80" s="1" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="HL80" t="n">
+        <v>43.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="2">
+    <row r="81" ht="13.8" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -52710,11 +54150,29 @@
       <c r="HE81" s="1" t="n">
         <v>25.6</v>
       </c>
-      <c r="HF81" t="n">
+      <c r="HF81" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="HG81" s="1" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="HH81" s="1" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HI81" s="1" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="HJ81" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="HK81" s="1" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="HL81" t="n">
+        <v>25.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="2">
+    <row r="82" ht="13.8" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -53356,11 +54814,29 @@
       <c r="HE82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="HF82" t="n">
+      <c r="HF82" s="1" t="n">
         <v>187.8</v>
       </c>
+      <c r="HG82" s="1" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="HH82" s="1" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="HI82" s="1" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HJ82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HK82" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HL82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="2">
+    <row r="83" ht="13.8" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -54002,11 +55478,29 @@
       <c r="HE83" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="HF83" t="n">
+      <c r="HF83" s="1" t="n">
         <v>84.2</v>
       </c>
+      <c r="HG83" s="1" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="HH83" s="1" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HI83" s="1" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="HJ83" s="1" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="HK83" s="1" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="HL83" t="n">
+        <v>87</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="2">
+    <row r="84" ht="13.8" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -54648,11 +56142,29 @@
       <c r="HE84" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="HF84" t="n">
+      <c r="HF84" s="1" t="n">
         <v>24.66</v>
       </c>
+      <c r="HG84" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HH84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HI84" s="1" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="HJ84" s="1" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HK84" s="1" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="HL84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="2">
+    <row r="85" ht="13.8" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -55294,11 +56806,29 @@
       <c r="HE85" s="1" t="n">
         <v>70.5</v>
       </c>
-      <c r="HF85" t="n">
+      <c r="HF85" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
+      <c r="HG85" s="1" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="HH85" s="1" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="HI85" s="1" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="HJ85" s="1" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="HK85" s="1" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="HL85" t="n">
+        <v>84.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="2">
+    <row r="86" ht="13.8" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -55940,11 +57470,29 @@
       <c r="HE86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HF86" t="n">
+      <c r="HF86" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HG86" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL86" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="2">
+    <row r="87" ht="13.8" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -56586,11 +58134,29 @@
       <c r="HE87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HF87" t="n">
+      <c r="HF87" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HG87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL87" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="2">
+    <row r="88" ht="13.8" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -57232,11 +58798,29 @@
       <c r="HE88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HF88" t="n">
+      <c r="HF88" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HG88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL88" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="2">
+    <row r="89" ht="13.8" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -57878,11 +59462,29 @@
       <c r="HE89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HF89" t="n">
+      <c r="HF89" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HG89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK89" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HL89" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="2">
+    <row r="90" ht="13.8" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -58524,11 +60126,29 @@
       <c r="HE90" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="HF90" t="n">
+      <c r="HF90" s="1" t="n">
         <v>107</v>
       </c>
+      <c r="HG90" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="HH90" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="HI90" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="HJ90" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="HK90" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="HL90" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="2">
+    <row r="91" ht="13.8" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -59170,11 +60790,29 @@
       <c r="HE91" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="HF91" t="n">
+      <c r="HF91" s="1" t="n">
         <v>192</v>
       </c>
+      <c r="HG91" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="HH91" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="HI91" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="HJ91" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="HK91" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="HL91" t="n">
+        <v>209</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="2">
+    <row r="92" ht="13.8" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -59816,11 +61454,29 @@
       <c r="HE92" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="HF92" t="n">
+      <c r="HF92" s="1" t="n">
         <v>208</v>
       </c>
+      <c r="HG92" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="HH92" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="HI92" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="HJ92" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="HK92" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="HL92" t="n">
+        <v>241</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="2">
+    <row r="93" ht="13.8" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -60462,11 +62118,29 @@
       <c r="HE93" s="1" t="n">
         <v>64.8</v>
       </c>
-      <c r="HF93" t="n">
+      <c r="HF93" s="1" t="n">
         <v>69.8</v>
       </c>
+      <c r="HG93" s="1" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="HH93" s="1" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="HI93" s="1" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="HJ93" s="1" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="HK93" s="1" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="HL93" t="n">
+        <v>77.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="2">
+    <row r="94" ht="13.8" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -61108,11 +62782,29 @@
       <c r="HE94" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HF94" t="n">
+      <c r="HF94" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HG94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="HH94" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HI94" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HJ94" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HK94" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HL94" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="2">
+    <row r="95" ht="13.8" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -61754,11 +63446,29 @@
       <c r="HE95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HF95" t="n">
+      <c r="HF95" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HG95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HH95" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI95" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HJ95" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HL95" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="2">
+    <row r="96" ht="13.8" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -62400,11 +64110,29 @@
       <c r="HE96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HF96" t="n">
+      <c r="HF96" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="HG96" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI96" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HJ96" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HL96" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="2">
+    <row r="97" ht="13.8" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -63046,11 +64774,29 @@
       <c r="HE97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HF97" t="n">
+      <c r="HF97" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="HG97" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HH97" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HI97" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HJ97" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HK97" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HL97" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="2">
+    <row r="98" ht="13.8" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -63692,11 +65438,29 @@
       <c r="HE98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HF98" t="n">
+      <c r="HF98" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HG98" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH98" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HI98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HJ98" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK98" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HL98" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="2">
+    <row r="99" ht="13.8" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -64338,11 +66102,29 @@
       <c r="HE99" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HF99" t="n">
+      <c r="HF99" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HG99" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HH99" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HI99" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HJ99" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HK99" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HL99" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="2">
+    <row r="100" ht="13.8" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -64984,11 +66766,29 @@
       <c r="HE100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HF100" t="n">
+      <c r="HF100" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HG100" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HH100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL100" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="2">
+    <row r="101" ht="13.8" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -65630,11 +67430,29 @@
       <c r="HE101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HF101" t="n">
+      <c r="HF101" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HG101" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ101" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK101" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL101" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="2">
+    <row r="102" ht="13.8" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -66276,13 +68094,31 @@
       <c r="HE102" s="1" t="n">
         <v>54.5</v>
       </c>
-      <c r="HF102" t="n">
+      <c r="HF102" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HG102" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="HH102" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HI102" s="1" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="HJ102" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="HK102" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HL102" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>